--- a/app/data/static/templates/constructor_schedule.xlsx
+++ b/app/data/static/templates/constructor_schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Расписание" sheetId="1" state="visible" r:id="rId2"/>
@@ -427,15 +427,237 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="576" min="5" style="0" width="2.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="577" style="0" width="8.53"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -453,12 +675,12 @@
   </sheetPr>
   <dimension ref="A1:X122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="16" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G36" activeCellId="0" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="N36" activeCellId="0" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6309,7 +6531,7 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6351,7 +6573,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6377,7 +6599,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -6404,7 +6626,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -6431,7 +6653,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/app/data/static/templates/constructor_schedule.xlsx
+++ b/app/data/static/templates/constructor_schedule.xlsx
@@ -193,12 +193,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -227,8 +234,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -428,14 +439,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
+      <selection pane="topLeft" activeCell="AM6" activeCellId="0" sqref="AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="576" min="5" style="0" width="2.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="577" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="576" min="5" style="1" width="2.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="577" style="1" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -693,9 +704,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="43.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="1.82"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="0" width="5.54"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="0" width="5.46"/>
@@ -710,84 +721,84 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="S1" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="8"/>
-      <c r="J2" s="1" t="str">
+      <c r="B2" s="9"/>
+      <c r="J2" s="2" t="str">
         <f aca="true">IF(M2="", IF(O2="","",X2+(INDIRECT("S" &amp; ROW() - 1) - S2)),IF(O2="", "", INDIRECT("S" &amp; ROW() - 1) - S2))</f>
         <v/>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9" t="str">
+      <c r="M2" s="10"/>
+      <c r="N2" s="10" t="str">
         <f aca="false">IF(M2="", IF(X2=0, "", X2), IF(V2 = "", "", IF(V2/U2 = 0, "", V2/U2)))</f>
         <v/>
       </c>
@@ -829,12 +840,12 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J3" s="1" t="str">
+      <c r="J3" s="2" t="str">
         <f aca="true">IF(M3="", IF(O3="","",X3+(INDIRECT("S" &amp; ROW() - 1) - S3)),IF(O3="", "", INDIRECT("S" &amp; ROW() - 1) - S3))</f>
         <v/>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="9" t="str">
+      <c r="M3" s="11"/>
+      <c r="N3" s="10" t="str">
         <f aca="false">IF(M3="", IF(X3=0, "", X3), IF(V3 = "", "", IF(V3/U3 = 0, "", V3/U3)))</f>
         <v/>
       </c>
@@ -876,12 +887,12 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J4" s="1" t="str">
+      <c r="J4" s="2" t="str">
         <f aca="true">IF(M4="", IF(O4="","",X4+(INDIRECT("S" &amp; ROW() - 1) - S4)),IF(O4="", "", INDIRECT("S" &amp; ROW() - 1) - S4))</f>
         <v/>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="9" t="str">
+      <c r="M4" s="11"/>
+      <c r="N4" s="10" t="str">
         <f aca="false">IF(M4="", IF(X4=0, "", X4), IF(V4 = "", "", IF(V4/U4 = 0, "", V4/U4)))</f>
         <v/>
       </c>
@@ -923,12 +934,12 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="2" t="str">
         <f aca="true">IF(M5="", IF(O5="","",X5+(INDIRECT("S" &amp; ROW() - 1) - S5)),IF(O5="", "", INDIRECT("S" &amp; ROW() - 1) - S5))</f>
         <v/>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="9" t="str">
+      <c r="M5" s="11"/>
+      <c r="N5" s="10" t="str">
         <f aca="false">IF(M5="", IF(X5=0, "", X5), IF(V5 = "", "", IF(V5/U5 = 0, "", V5/U5)))</f>
         <v/>
       </c>
@@ -970,12 +981,12 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J6" s="1" t="str">
+      <c r="J6" s="2" t="str">
         <f aca="true">IF(M6="", IF(O6="","",X6+(INDIRECT("S" &amp; ROW() - 1) - S6)),IF(O6="", "", INDIRECT("S" &amp; ROW() - 1) - S6))</f>
         <v/>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="9" t="str">
+      <c r="M6" s="11"/>
+      <c r="N6" s="10" t="str">
         <f aca="false">IF(M6="", IF(X6=0, "", X6), IF(V6 = "", "", IF(V6/U6 = 0, "", V6/U6)))</f>
         <v/>
       </c>
@@ -1017,12 +1028,12 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J7" s="1" t="str">
+      <c r="J7" s="2" t="str">
         <f aca="true">IF(M7="", IF(O7="","",X7+(INDIRECT("S" &amp; ROW() - 1) - S7)),IF(O7="", "", INDIRECT("S" &amp; ROW() - 1) - S7))</f>
         <v/>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="9" t="str">
+      <c r="M7" s="11"/>
+      <c r="N7" s="10" t="str">
         <f aca="false">IF(M7="", IF(X7=0, "", X7), IF(V7 = "", "", IF(V7/U7 = 0, "", V7/U7)))</f>
         <v/>
       </c>
@@ -1064,12 +1075,12 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J8" s="1" t="str">
+      <c r="J8" s="2" t="str">
         <f aca="true">IF(M8="", IF(O8="","",X8+(INDIRECT("S" &amp; ROW() - 1) - S8)),IF(O8="", "", INDIRECT("S" &amp; ROW() - 1) - S8))</f>
         <v/>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="9" t="str">
+      <c r="M8" s="11"/>
+      <c r="N8" s="10" t="str">
         <f aca="false">IF(M8="", IF(X8=0, "", X8), IF(V8 = "", "", IF(V8/U8 = 0, "", V8/U8)))</f>
         <v/>
       </c>
@@ -1111,12 +1122,12 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J9" s="1" t="str">
+      <c r="J9" s="2" t="str">
         <f aca="true">IF(M9="", IF(O9="","",X9+(INDIRECT("S" &amp; ROW() - 1) - S9)),IF(O9="", "", INDIRECT("S" &amp; ROW() - 1) - S9))</f>
         <v/>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="9" t="str">
+      <c r="M9" s="11"/>
+      <c r="N9" s="10" t="str">
         <f aca="false">IF(M9="", IF(X9=0, "", X9), IF(V9 = "", "", IF(V9/U9 = 0, "", V9/U9)))</f>
         <v/>
       </c>
@@ -1158,12 +1169,12 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J10" s="1" t="str">
+      <c r="J10" s="2" t="str">
         <f aca="true">IF(M10="", IF(O10="","",X10+(INDIRECT("S" &amp; ROW() - 1) - S10)),IF(O10="", "", INDIRECT("S" &amp; ROW() - 1) - S10))</f>
         <v/>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="9" t="str">
+      <c r="M10" s="11"/>
+      <c r="N10" s="10" t="str">
         <f aca="false">IF(M10="", IF(X10=0, "", X10), IF(V10 = "", "", IF(V10/U10 = 0, "", V10/U10)))</f>
         <v/>
       </c>
@@ -1205,12 +1216,12 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J11" s="1" t="str">
+      <c r="J11" s="2" t="str">
         <f aca="true">IF(M11="", IF(O11="","",X11+(INDIRECT("S" &amp; ROW() - 1) - S11)),IF(O11="", "", INDIRECT("S" &amp; ROW() - 1) - S11))</f>
         <v/>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="9" t="str">
+      <c r="M11" s="11"/>
+      <c r="N11" s="10" t="str">
         <f aca="false">IF(M11="", IF(X11=0, "", X11), IF(V11 = "", "", IF(V11/U11 = 0, "", V11/U11)))</f>
         <v/>
       </c>
@@ -1252,12 +1263,12 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J12" s="1" t="str">
+      <c r="J12" s="2" t="str">
         <f aca="true">IF(M12="", IF(O12="","",X12+(INDIRECT("S" &amp; ROW() - 1) - S12)),IF(O12="", "", INDIRECT("S" &amp; ROW() - 1) - S12))</f>
         <v/>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="9" t="str">
+      <c r="M12" s="11"/>
+      <c r="N12" s="10" t="str">
         <f aca="false">IF(M12="", IF(X12=0, "", X12), IF(V12 = "", "", IF(V12/U12 = 0, "", V12/U12)))</f>
         <v/>
       </c>
@@ -1299,12 +1310,12 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J13" s="1" t="str">
+      <c r="J13" s="2" t="str">
         <f aca="true">IF(M13="", IF(O13="","",X13+(INDIRECT("S" &amp; ROW() - 1) - S13)),IF(O13="", "", INDIRECT("S" &amp; ROW() - 1) - S13))</f>
         <v/>
       </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="9" t="str">
+      <c r="M13" s="11"/>
+      <c r="N13" s="10" t="str">
         <f aca="false">IF(M13="", IF(X13=0, "", X13), IF(V13 = "", "", IF(V13/U13 = 0, "", V13/U13)))</f>
         <v/>
       </c>
@@ -1346,12 +1357,12 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J14" s="1" t="str">
+      <c r="J14" s="2" t="str">
         <f aca="true">IF(M14="", IF(O14="","",X14+(INDIRECT("S" &amp; ROW() - 1) - S14)),IF(O14="", "", INDIRECT("S" &amp; ROW() - 1) - S14))</f>
         <v/>
       </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="9" t="str">
+      <c r="M14" s="11"/>
+      <c r="N14" s="10" t="str">
         <f aca="false">IF(M14="", IF(X14=0, "", X14), IF(V14 = "", "", IF(V14/U14 = 0, "", V14/U14)))</f>
         <v/>
       </c>
@@ -1393,12 +1404,12 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J15" s="1" t="str">
+      <c r="J15" s="2" t="str">
         <f aca="true">IF(M15="", IF(O15="","",X15+(INDIRECT("S" &amp; ROW() - 1) - S15)),IF(O15="", "", INDIRECT("S" &amp; ROW() - 1) - S15))</f>
         <v/>
       </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="9" t="str">
+      <c r="M15" s="11"/>
+      <c r="N15" s="10" t="str">
         <f aca="false">IF(M15="", IF(X15=0, "", X15), IF(V15 = "", "", IF(V15/U15 = 0, "", V15/U15)))</f>
         <v/>
       </c>
@@ -1440,12 +1451,12 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="1" t="str">
+      <c r="J16" s="2" t="str">
         <f aca="true">IF(M16="", IF(O16="","",X16+(INDIRECT("S" &amp; ROW() - 1) - S16)),IF(O16="", "", INDIRECT("S" &amp; ROW() - 1) - S16))</f>
         <v/>
       </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="9" t="str">
+      <c r="M16" s="11"/>
+      <c r="N16" s="10" t="str">
         <f aca="false">IF(M16="", IF(X16=0, "", X16), IF(V16 = "", "", IF(V16/U16 = 0, "", V16/U16)))</f>
         <v/>
       </c>
@@ -1487,12 +1498,12 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="1" t="str">
+      <c r="J17" s="2" t="str">
         <f aca="true">IF(M17="", IF(O17="","",X17+(INDIRECT("S" &amp; ROW() - 1) - S17)),IF(O17="", "", INDIRECT("S" &amp; ROW() - 1) - S17))</f>
         <v/>
       </c>
-      <c r="M17" s="10"/>
-      <c r="N17" s="9" t="str">
+      <c r="M17" s="11"/>
+      <c r="N17" s="10" t="str">
         <f aca="false">IF(M17="", IF(X17=0, "", X17), IF(V17 = "", "", IF(V17/U17 = 0, "", V17/U17)))</f>
         <v/>
       </c>
@@ -1534,12 +1545,12 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="1" t="str">
+      <c r="J18" s="2" t="str">
         <f aca="true">IF(M18="", IF(O18="","",X18+(INDIRECT("S" &amp; ROW() - 1) - S18)),IF(O18="", "", INDIRECT("S" &amp; ROW() - 1) - S18))</f>
         <v/>
       </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="9" t="str">
+      <c r="M18" s="11"/>
+      <c r="N18" s="10" t="str">
         <f aca="false">IF(M18="", IF(X18=0, "", X18), IF(V18 = "", "", IF(V18/U18 = 0, "", V18/U18)))</f>
         <v/>
       </c>
@@ -1581,12 +1592,12 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="1" t="str">
+      <c r="J19" s="2" t="str">
         <f aca="true">IF(M19="", IF(O19="","",X19+(INDIRECT("S" &amp; ROW() - 1) - S19)),IF(O19="", "", INDIRECT("S" &amp; ROW() - 1) - S19))</f>
         <v/>
       </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="9" t="str">
+      <c r="M19" s="11"/>
+      <c r="N19" s="10" t="str">
         <f aca="false">IF(M19="", IF(X19=0, "", X19), IF(V19 = "", "", IF(V19/U19 = 0, "", V19/U19)))</f>
         <v/>
       </c>
@@ -1628,12 +1639,12 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="1" t="str">
+      <c r="J20" s="2" t="str">
         <f aca="true">IF(M20="", IF(O20="","",X20+(INDIRECT("S" &amp; ROW() - 1) - S20)),IF(O20="", "", INDIRECT("S" &amp; ROW() - 1) - S20))</f>
         <v/>
       </c>
-      <c r="M20" s="10"/>
-      <c r="N20" s="9" t="str">
+      <c r="M20" s="11"/>
+      <c r="N20" s="10" t="str">
         <f aca="false">IF(M20="", IF(X20=0, "", X20), IF(V20 = "", "", IF(V20/U20 = 0, "", V20/U20)))</f>
         <v/>
       </c>
@@ -1675,12 +1686,12 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="1" t="str">
+      <c r="J21" s="2" t="str">
         <f aca="true">IF(M21="", IF(O21="","",X21+(INDIRECT("S" &amp; ROW() - 1) - S21)),IF(O21="", "", INDIRECT("S" &amp; ROW() - 1) - S21))</f>
         <v/>
       </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="9" t="str">
+      <c r="M21" s="11"/>
+      <c r="N21" s="10" t="str">
         <f aca="false">IF(M21="", IF(X21=0, "", X21), IF(V21 = "", "", IF(V21/U21 = 0, "", V21/U21)))</f>
         <v/>
       </c>
@@ -1722,12 +1733,12 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="1" t="str">
+      <c r="J22" s="2" t="str">
         <f aca="true">IF(M22="", IF(O22="","",X22+(INDIRECT("S" &amp; ROW() - 1) - S22)),IF(O22="", "", INDIRECT("S" &amp; ROW() - 1) - S22))</f>
         <v/>
       </c>
-      <c r="M22" s="10"/>
-      <c r="N22" s="9" t="str">
+      <c r="M22" s="11"/>
+      <c r="N22" s="10" t="str">
         <f aca="false">IF(M22="", IF(X22=0, "", X22), IF(V22 = "", "", IF(V22/U22 = 0, "", V22/U22)))</f>
         <v/>
       </c>
@@ -1769,12 +1780,12 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="1" t="str">
+      <c r="J23" s="2" t="str">
         <f aca="true">IF(M23="", IF(O23="","",X23+(INDIRECT("S" &amp; ROW() - 1) - S23)),IF(O23="", "", INDIRECT("S" &amp; ROW() - 1) - S23))</f>
         <v/>
       </c>
-      <c r="M23" s="10"/>
-      <c r="N23" s="9" t="str">
+      <c r="M23" s="11"/>
+      <c r="N23" s="10" t="str">
         <f aca="false">IF(M23="", IF(X23=0, "", X23), IF(V23 = "", "", IF(V23/U23 = 0, "", V23/U23)))</f>
         <v/>
       </c>
@@ -1816,12 +1827,12 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="1" t="str">
+      <c r="J24" s="2" t="str">
         <f aca="true">IF(M24="", IF(O24="","",X24+(INDIRECT("S" &amp; ROW() - 1) - S24)),IF(O24="", "", INDIRECT("S" &amp; ROW() - 1) - S24))</f>
         <v/>
       </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="9" t="str">
+      <c r="M24" s="11"/>
+      <c r="N24" s="10" t="str">
         <f aca="false">IF(M24="", IF(X24=0, "", X24), IF(V24 = "", "", IF(V24/U24 = 0, "", V24/U24)))</f>
         <v/>
       </c>
@@ -1863,12 +1874,12 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="1" t="str">
+      <c r="J25" s="2" t="str">
         <f aca="true">IF(M25="", IF(O25="","",X25+(INDIRECT("S" &amp; ROW() - 1) - S25)),IF(O25="", "", INDIRECT("S" &amp; ROW() - 1) - S25))</f>
         <v/>
       </c>
-      <c r="M25" s="10"/>
-      <c r="N25" s="9" t="str">
+      <c r="M25" s="11"/>
+      <c r="N25" s="10" t="str">
         <f aca="false">IF(M25="", IF(X25=0, "", X25), IF(V25 = "", "", IF(V25/U25 = 0, "", V25/U25)))</f>
         <v/>
       </c>
@@ -1910,12 +1921,12 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="1" t="str">
+      <c r="J26" s="2" t="str">
         <f aca="true">IF(M26="", IF(O26="","",X26+(INDIRECT("S" &amp; ROW() - 1) - S26)),IF(O26="", "", INDIRECT("S" &amp; ROW() - 1) - S26))</f>
         <v/>
       </c>
-      <c r="M26" s="10"/>
-      <c r="N26" s="9" t="str">
+      <c r="M26" s="11"/>
+      <c r="N26" s="10" t="str">
         <f aca="false">IF(M26="", IF(X26=0, "", X26), IF(V26 = "", "", IF(V26/U26 = 0, "", V26/U26)))</f>
         <v/>
       </c>
@@ -1957,12 +1968,12 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="1" t="str">
+      <c r="J27" s="2" t="str">
         <f aca="true">IF(M27="", IF(O27="","",X27+(INDIRECT("S" &amp; ROW() - 1) - S27)),IF(O27="", "", INDIRECT("S" &amp; ROW() - 1) - S27))</f>
         <v/>
       </c>
-      <c r="M27" s="10"/>
-      <c r="N27" s="9" t="str">
+      <c r="M27" s="11"/>
+      <c r="N27" s="10" t="str">
         <f aca="false">IF(M27="", IF(X27=0, "", X27), IF(V27 = "", "", IF(V27/U27 = 0, "", V27/U27)))</f>
         <v/>
       </c>
@@ -2004,12 +2015,12 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="1" t="str">
+      <c r="J28" s="2" t="str">
         <f aca="true">IF(M28="", IF(O28="","",X28+(INDIRECT("S" &amp; ROW() - 1) - S28)),IF(O28="", "", INDIRECT("S" &amp; ROW() - 1) - S28))</f>
         <v/>
       </c>
-      <c r="M28" s="10"/>
-      <c r="N28" s="9" t="str">
+      <c r="M28" s="11"/>
+      <c r="N28" s="10" t="str">
         <f aca="false">IF(M28="", IF(X28=0, "", X28), IF(V28 = "", "", IF(V28/U28 = 0, "", V28/U28)))</f>
         <v/>
       </c>
@@ -2051,12 +2062,12 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="1" t="str">
+      <c r="J29" s="2" t="str">
         <f aca="true">IF(M29="", IF(O29="","",X29+(INDIRECT("S" &amp; ROW() - 1) - S29)),IF(O29="", "", INDIRECT("S" &amp; ROW() - 1) - S29))</f>
         <v/>
       </c>
-      <c r="M29" s="10"/>
-      <c r="N29" s="9" t="str">
+      <c r="M29" s="11"/>
+      <c r="N29" s="10" t="str">
         <f aca="false">IF(M29="", IF(X29=0, "", X29), IF(V29 = "", "", IF(V29/U29 = 0, "", V29/U29)))</f>
         <v/>
       </c>
@@ -2098,12 +2109,12 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J30" s="1" t="str">
+      <c r="J30" s="2" t="str">
         <f aca="true">IF(M30="", IF(O30="","",X30+(INDIRECT("S" &amp; ROW() - 1) - S30)),IF(O30="", "", INDIRECT("S" &amp; ROW() - 1) - S30))</f>
         <v/>
       </c>
-      <c r="M30" s="10"/>
-      <c r="N30" s="9" t="str">
+      <c r="M30" s="11"/>
+      <c r="N30" s="10" t="str">
         <f aca="false">IF(M30="", IF(X30=0, "", X30), IF(V30 = "", "", IF(V30/U30 = 0, "", V30/U30)))</f>
         <v/>
       </c>
@@ -2145,12 +2156,12 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J31" s="1" t="str">
+      <c r="J31" s="2" t="str">
         <f aca="true">IF(M31="", IF(O31="","",X31+(INDIRECT("S" &amp; ROW() - 1) - S31)),IF(O31="", "", INDIRECT("S" &amp; ROW() - 1) - S31))</f>
         <v/>
       </c>
-      <c r="M31" s="10"/>
-      <c r="N31" s="9" t="str">
+      <c r="M31" s="11"/>
+      <c r="N31" s="10" t="str">
         <f aca="false">IF(M31="", IF(X31=0, "", X31), IF(V31 = "", "", IF(V31/U31 = 0, "", V31/U31)))</f>
         <v/>
       </c>
@@ -2192,12 +2203,12 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J32" s="1" t="str">
+      <c r="J32" s="2" t="str">
         <f aca="true">IF(M32="", IF(O32="","",X32+(INDIRECT("S" &amp; ROW() - 1) - S32)),IF(O32="", "", INDIRECT("S" &amp; ROW() - 1) - S32))</f>
         <v/>
       </c>
-      <c r="M32" s="10"/>
-      <c r="N32" s="9" t="str">
+      <c r="M32" s="11"/>
+      <c r="N32" s="10" t="str">
         <f aca="false">IF(M32="", IF(X32=0, "", X32), IF(V32 = "", "", IF(V32/U32 = 0, "", V32/U32)))</f>
         <v/>
       </c>
@@ -2239,12 +2250,12 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J33" s="1" t="str">
+      <c r="J33" s="2" t="str">
         <f aca="true">IF(M33="", IF(O33="","",X33+(INDIRECT("S" &amp; ROW() - 1) - S33)),IF(O33="", "", INDIRECT("S" &amp; ROW() - 1) - S33))</f>
         <v/>
       </c>
-      <c r="M33" s="10"/>
-      <c r="N33" s="9" t="str">
+      <c r="M33" s="11"/>
+      <c r="N33" s="10" t="str">
         <f aca="false">IF(M33="", IF(X33=0, "", X33), IF(V33 = "", "", IF(V33/U33 = 0, "", V33/U33)))</f>
         <v/>
       </c>
@@ -2286,12 +2297,12 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J34" s="1" t="str">
+      <c r="J34" s="2" t="str">
         <f aca="true">IF(M34="", IF(O34="","",X34+(INDIRECT("S" &amp; ROW() - 1) - S34)),IF(O34="", "", INDIRECT("S" &amp; ROW() - 1) - S34))</f>
         <v/>
       </c>
-      <c r="M34" s="10"/>
-      <c r="N34" s="9" t="str">
+      <c r="M34" s="11"/>
+      <c r="N34" s="10" t="str">
         <f aca="false">IF(M34="", IF(X34=0, "", X34), IF(V34 = "", "", IF(V34/U34 = 0, "", V34/U34)))</f>
         <v/>
       </c>
@@ -2333,12 +2344,12 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J35" s="1" t="str">
+      <c r="J35" s="2" t="str">
         <f aca="true">IF(M35="", IF(O35="","",X35+(INDIRECT("S" &amp; ROW() - 1) - S35)),IF(O35="", "", INDIRECT("S" &amp; ROW() - 1) - S35))</f>
         <v/>
       </c>
-      <c r="M35" s="10"/>
-      <c r="N35" s="9" t="str">
+      <c r="M35" s="11"/>
+      <c r="N35" s="10" t="str">
         <f aca="false">IF(M35="", IF(X35=0, "", X35), IF(V35 = "", "", IF(V35/U35 = 0, "", V35/U35)))</f>
         <v/>
       </c>
@@ -2380,12 +2391,12 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J36" s="1" t="str">
+      <c r="J36" s="2" t="str">
         <f aca="true">IF(M36="", IF(O36="","",X36+(INDIRECT("S" &amp; ROW() - 1) - S36)),IF(O36="", "", INDIRECT("S" &amp; ROW() - 1) - S36))</f>
         <v/>
       </c>
-      <c r="M36" s="10"/>
-      <c r="N36" s="9" t="str">
+      <c r="M36" s="11"/>
+      <c r="N36" s="10" t="str">
         <f aca="false">IF(M36="", IF(X36=0, "", X36), IF(V36 = "", "", IF(V36/U36 = 0, "", V36/U36)))</f>
         <v/>
       </c>
@@ -2427,12 +2438,12 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J37" s="1" t="str">
+      <c r="J37" s="2" t="str">
         <f aca="true">IF(M37="", IF(O37="","",X37+(INDIRECT("S" &amp; ROW() - 1) - S37)),IF(O37="", "", INDIRECT("S" &amp; ROW() - 1) - S37))</f>
         <v/>
       </c>
-      <c r="M37" s="10"/>
-      <c r="N37" s="9" t="str">
+      <c r="M37" s="11"/>
+      <c r="N37" s="10" t="str">
         <f aca="false">IF(M37="", IF(X37=0, "", X37), IF(V37 = "", "", IF(V37/U37 = 0, "", V37/U37)))</f>
         <v/>
       </c>
@@ -2474,12 +2485,12 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J38" s="1" t="str">
+      <c r="J38" s="2" t="str">
         <f aca="true">IF(M38="", IF(O38="","",X38+(INDIRECT("S" &amp; ROW() - 1) - S38)),IF(O38="", "", INDIRECT("S" &amp; ROW() - 1) - S38))</f>
         <v/>
       </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="9" t="str">
+      <c r="M38" s="11"/>
+      <c r="N38" s="10" t="str">
         <f aca="false">IF(M38="", IF(X38=0, "", X38), IF(V38 = "", "", IF(V38/U38 = 0, "", V38/U38)))</f>
         <v/>
       </c>
@@ -2521,12 +2532,12 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J39" s="1" t="str">
+      <c r="J39" s="2" t="str">
         <f aca="true">IF(M39="", IF(O39="","",X39+(INDIRECT("S" &amp; ROW() - 1) - S39)),IF(O39="", "", INDIRECT("S" &amp; ROW() - 1) - S39))</f>
         <v/>
       </c>
-      <c r="M39" s="10"/>
-      <c r="N39" s="9" t="str">
+      <c r="M39" s="11"/>
+      <c r="N39" s="10" t="str">
         <f aca="false">IF(M39="", IF(X39=0, "", X39), IF(V39 = "", "", IF(V39/U39 = 0, "", V39/U39)))</f>
         <v/>
       </c>
@@ -2568,12 +2579,12 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J40" s="1" t="str">
+      <c r="J40" s="2" t="str">
         <f aca="true">IF(M40="", IF(O40="","",X40+(INDIRECT("S" &amp; ROW() - 1) - S40)),IF(O40="", "", INDIRECT("S" &amp; ROW() - 1) - S40))</f>
         <v/>
       </c>
-      <c r="M40" s="10"/>
-      <c r="N40" s="9" t="str">
+      <c r="M40" s="11"/>
+      <c r="N40" s="10" t="str">
         <f aca="false">IF(M40="", IF(X40=0, "", X40), IF(V40 = "", "", IF(V40/U40 = 0, "", V40/U40)))</f>
         <v/>
       </c>
@@ -2615,12 +2626,12 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J41" s="1" t="str">
+      <c r="J41" s="2" t="str">
         <f aca="true">IF(M41="", IF(O41="","",X41+(INDIRECT("S" &amp; ROW() - 1) - S41)),IF(O41="", "", INDIRECT("S" &amp; ROW() - 1) - S41))</f>
         <v/>
       </c>
-      <c r="M41" s="10"/>
-      <c r="N41" s="9" t="str">
+      <c r="M41" s="11"/>
+      <c r="N41" s="10" t="str">
         <f aca="false">IF(M41="", IF(X41=0, "", X41), IF(V41 = "", "", IF(V41/U41 = 0, "", V41/U41)))</f>
         <v/>
       </c>
@@ -2662,12 +2673,12 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J42" s="1" t="str">
+      <c r="J42" s="2" t="str">
         <f aca="true">IF(M42="", IF(O42="","",X42+(INDIRECT("S" &amp; ROW() - 1) - S42)),IF(O42="", "", INDIRECT("S" &amp; ROW() - 1) - S42))</f>
         <v/>
       </c>
-      <c r="M42" s="10"/>
-      <c r="N42" s="9" t="str">
+      <c r="M42" s="11"/>
+      <c r="N42" s="10" t="str">
         <f aca="false">IF(M42="", IF(X42=0, "", X42), IF(V42 = "", "", IF(V42/U42 = 0, "", V42/U42)))</f>
         <v/>
       </c>
@@ -2709,12 +2720,12 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J43" s="1" t="str">
+      <c r="J43" s="2" t="str">
         <f aca="true">IF(M43="", IF(O43="","",X43+(INDIRECT("S" &amp; ROW() - 1) - S43)),IF(O43="", "", INDIRECT("S" &amp; ROW() - 1) - S43))</f>
         <v/>
       </c>
-      <c r="M43" s="10"/>
-      <c r="N43" s="9" t="str">
+      <c r="M43" s="11"/>
+      <c r="N43" s="10" t="str">
         <f aca="false">IF(M43="", IF(X43=0, "", X43), IF(V43 = "", "", IF(V43/U43 = 0, "", V43/U43)))</f>
         <v/>
       </c>
@@ -2756,12 +2767,12 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J44" s="1" t="str">
+      <c r="J44" s="2" t="str">
         <f aca="true">IF(M44="", IF(O44="","",X44+(INDIRECT("S" &amp; ROW() - 1) - S44)),IF(O44="", "", INDIRECT("S" &amp; ROW() - 1) - S44))</f>
         <v/>
       </c>
-      <c r="M44" s="10"/>
-      <c r="N44" s="9" t="str">
+      <c r="M44" s="11"/>
+      <c r="N44" s="10" t="str">
         <f aca="false">IF(M44="", IF(X44=0, "", X44), IF(V44 = "", "", IF(V44/U44 = 0, "", V44/U44)))</f>
         <v/>
       </c>
@@ -2803,12 +2814,12 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J45" s="1" t="str">
+      <c r="J45" s="2" t="str">
         <f aca="true">IF(M45="", IF(O45="","",X45+(INDIRECT("S" &amp; ROW() - 1) - S45)),IF(O45="", "", INDIRECT("S" &amp; ROW() - 1) - S45))</f>
         <v/>
       </c>
-      <c r="M45" s="10"/>
-      <c r="N45" s="9" t="str">
+      <c r="M45" s="11"/>
+      <c r="N45" s="10" t="str">
         <f aca="false">IF(M45="", IF(X45=0, "", X45), IF(V45 = "", "", IF(V45/U45 = 0, "", V45/U45)))</f>
         <v/>
       </c>
@@ -2850,12 +2861,12 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J46" s="1" t="str">
+      <c r="J46" s="2" t="str">
         <f aca="true">IF(M46="", IF(O46="","",X46+(INDIRECT("S" &amp; ROW() - 1) - S46)),IF(O46="", "", INDIRECT("S" &amp; ROW() - 1) - S46))</f>
         <v/>
       </c>
-      <c r="M46" s="10"/>
-      <c r="N46" s="9" t="str">
+      <c r="M46" s="11"/>
+      <c r="N46" s="10" t="str">
         <f aca="false">IF(M46="", IF(X46=0, "", X46), IF(V46 = "", "", IF(V46/U46 = 0, "", V46/U46)))</f>
         <v/>
       </c>
@@ -2897,12 +2908,12 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J47" s="1" t="str">
+      <c r="J47" s="2" t="str">
         <f aca="true">IF(M47="", IF(O47="","",X47+(INDIRECT("S" &amp; ROW() - 1) - S47)),IF(O47="", "", INDIRECT("S" &amp; ROW() - 1) - S47))</f>
         <v/>
       </c>
-      <c r="M47" s="10"/>
-      <c r="N47" s="9" t="str">
+      <c r="M47" s="11"/>
+      <c r="N47" s="10" t="str">
         <f aca="false">IF(M47="", IF(X47=0, "", X47), IF(V47 = "", "", IF(V47/U47 = 0, "", V47/U47)))</f>
         <v/>
       </c>
@@ -2944,12 +2955,12 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J48" s="1" t="str">
+      <c r="J48" s="2" t="str">
         <f aca="true">IF(M48="", IF(O48="","",X48+(INDIRECT("S" &amp; ROW() - 1) - S48)),IF(O48="", "", INDIRECT("S" &amp; ROW() - 1) - S48))</f>
         <v/>
       </c>
-      <c r="M48" s="10"/>
-      <c r="N48" s="9" t="str">
+      <c r="M48" s="11"/>
+      <c r="N48" s="10" t="str">
         <f aca="false">IF(M48="", IF(X48=0, "", X48), IF(V48 = "", "", IF(V48/U48 = 0, "", V48/U48)))</f>
         <v/>
       </c>
@@ -2991,12 +3002,12 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J49" s="1" t="str">
+      <c r="J49" s="2" t="str">
         <f aca="true">IF(M49="", IF(O49="","",X49+(INDIRECT("S" &amp; ROW() - 1) - S49)),IF(O49="", "", INDIRECT("S" &amp; ROW() - 1) - S49))</f>
         <v/>
       </c>
-      <c r="M49" s="10"/>
-      <c r="N49" s="9" t="str">
+      <c r="M49" s="11"/>
+      <c r="N49" s="10" t="str">
         <f aca="false">IF(M49="", IF(X49=0, "", X49), IF(V49 = "", "", IF(V49/U49 = 0, "", V49/U49)))</f>
         <v/>
       </c>
@@ -3038,12 +3049,12 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J50" s="1" t="str">
+      <c r="J50" s="2" t="str">
         <f aca="true">IF(M50="", IF(O50="","",X50+(INDIRECT("S" &amp; ROW() - 1) - S50)),IF(O50="", "", INDIRECT("S" &amp; ROW() - 1) - S50))</f>
         <v/>
       </c>
-      <c r="M50" s="10"/>
-      <c r="N50" s="9" t="str">
+      <c r="M50" s="11"/>
+      <c r="N50" s="10" t="str">
         <f aca="false">IF(M50="", IF(X50=0, "", X50), IF(V50 = "", "", IF(V50/U50 = 0, "", V50/U50)))</f>
         <v/>
       </c>
@@ -3085,12 +3096,12 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J51" s="1" t="str">
+      <c r="J51" s="2" t="str">
         <f aca="true">IF(M51="", IF(O51="","",X51+(INDIRECT("S" &amp; ROW() - 1) - S51)),IF(O51="", "", INDIRECT("S" &amp; ROW() - 1) - S51))</f>
         <v/>
       </c>
-      <c r="M51" s="10"/>
-      <c r="N51" s="9" t="str">
+      <c r="M51" s="11"/>
+      <c r="N51" s="10" t="str">
         <f aca="false">IF(M51="", IF(X51=0, "", X51), IF(V51 = "", "", IF(V51/U51 = 0, "", V51/U51)))</f>
         <v/>
       </c>
@@ -3132,12 +3143,12 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J52" s="1" t="str">
+      <c r="J52" s="2" t="str">
         <f aca="true">IF(M52="", IF(O52="","",X52+(INDIRECT("S" &amp; ROW() - 1) - S52)),IF(O52="", "", INDIRECT("S" &amp; ROW() - 1) - S52))</f>
         <v/>
       </c>
-      <c r="M52" s="10"/>
-      <c r="N52" s="9" t="str">
+      <c r="M52" s="11"/>
+      <c r="N52" s="10" t="str">
         <f aca="false">IF(M52="", IF(X52=0, "", X52), IF(V52 = "", "", IF(V52/U52 = 0, "", V52/U52)))</f>
         <v/>
       </c>
@@ -3179,12 +3190,12 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J53" s="1" t="str">
+      <c r="J53" s="2" t="str">
         <f aca="true">IF(M53="", IF(O53="","",X53+(INDIRECT("S" &amp; ROW() - 1) - S53)),IF(O53="", "", INDIRECT("S" &amp; ROW() - 1) - S53))</f>
         <v/>
       </c>
-      <c r="M53" s="10"/>
-      <c r="N53" s="9" t="str">
+      <c r="M53" s="11"/>
+      <c r="N53" s="10" t="str">
         <f aca="false">IF(M53="", IF(X53=0, "", X53), IF(V53 = "", "", IF(V53/U53 = 0, "", V53/U53)))</f>
         <v/>
       </c>
@@ -3226,12 +3237,12 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J54" s="1" t="str">
+      <c r="J54" s="2" t="str">
         <f aca="true">IF(M54="", IF(O54="","",X54+(INDIRECT("S" &amp; ROW() - 1) - S54)),IF(O54="", "", INDIRECT("S" &amp; ROW() - 1) - S54))</f>
         <v/>
       </c>
-      <c r="M54" s="10"/>
-      <c r="N54" s="9" t="str">
+      <c r="M54" s="11"/>
+      <c r="N54" s="10" t="str">
         <f aca="false">IF(M54="", IF(X54=0, "", X54), IF(V54 = "", "", IF(V54/U54 = 0, "", V54/U54)))</f>
         <v/>
       </c>
@@ -3273,12 +3284,12 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J55" s="1" t="str">
+      <c r="J55" s="2" t="str">
         <f aca="true">IF(M55="", IF(O55="","",X55+(INDIRECT("S" &amp; ROW() - 1) - S55)),IF(O55="", "", INDIRECT("S" &amp; ROW() - 1) - S55))</f>
         <v/>
       </c>
-      <c r="M55" s="10"/>
-      <c r="N55" s="9" t="str">
+      <c r="M55" s="11"/>
+      <c r="N55" s="10" t="str">
         <f aca="false">IF(M55="", IF(X55=0, "", X55), IF(V55 = "", "", IF(V55/U55 = 0, "", V55/U55)))</f>
         <v/>
       </c>
@@ -3320,12 +3331,12 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J56" s="1" t="str">
+      <c r="J56" s="2" t="str">
         <f aca="true">IF(M56="", IF(O56="","",X56+(INDIRECT("S" &amp; ROW() - 1) - S56)),IF(O56="", "", INDIRECT("S" &amp; ROW() - 1) - S56))</f>
         <v/>
       </c>
-      <c r="M56" s="10"/>
-      <c r="N56" s="9" t="str">
+      <c r="M56" s="11"/>
+      <c r="N56" s="10" t="str">
         <f aca="false">IF(M56="", IF(X56=0, "", X56), IF(V56 = "", "", IF(V56/U56 = 0, "", V56/U56)))</f>
         <v/>
       </c>
@@ -3367,12 +3378,12 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J57" s="1" t="str">
+      <c r="J57" s="2" t="str">
         <f aca="true">IF(M57="", IF(O57="","",X57+(INDIRECT("S" &amp; ROW() - 1) - S57)),IF(O57="", "", INDIRECT("S" &amp; ROW() - 1) - S57))</f>
         <v/>
       </c>
-      <c r="M57" s="10"/>
-      <c r="N57" s="9" t="str">
+      <c r="M57" s="11"/>
+      <c r="N57" s="10" t="str">
         <f aca="false">IF(M57="", IF(X57=0, "", X57), IF(V57 = "", "", IF(V57/U57 = 0, "", V57/U57)))</f>
         <v/>
       </c>
@@ -3414,12 +3425,12 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J58" s="1" t="str">
+      <c r="J58" s="2" t="str">
         <f aca="true">IF(M58="", IF(O58="","",X58+(INDIRECT("S" &amp; ROW() - 1) - S58)),IF(O58="", "", INDIRECT("S" &amp; ROW() - 1) - S58))</f>
         <v/>
       </c>
-      <c r="M58" s="10"/>
-      <c r="N58" s="9" t="str">
+      <c r="M58" s="11"/>
+      <c r="N58" s="10" t="str">
         <f aca="false">IF(M58="", IF(X58=0, "", X58), IF(V58 = "", "", IF(V58/U58 = 0, "", V58/U58)))</f>
         <v/>
       </c>
@@ -3461,12 +3472,12 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J59" s="1" t="str">
+      <c r="J59" s="2" t="str">
         <f aca="true">IF(M59="", IF(O59="","",X59+(INDIRECT("S" &amp; ROW() - 1) - S59)),IF(O59="", "", INDIRECT("S" &amp; ROW() - 1) - S59))</f>
         <v/>
       </c>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9" t="str">
+      <c r="M59" s="10"/>
+      <c r="N59" s="10" t="str">
         <f aca="false">IF(M59="", IF(X59=0, "", X59), IF(V59 = "", "", IF(V59/U59 = 0, "", V59/U59)))</f>
         <v/>
       </c>
@@ -3508,12 +3519,12 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J60" s="1" t="str">
+      <c r="J60" s="2" t="str">
         <f aca="true">IF(M60="", IF(O60="","",X60+(INDIRECT("S" &amp; ROW() - 1) - S60)),IF(O60="", "", INDIRECT("S" &amp; ROW() - 1) - S60))</f>
         <v/>
       </c>
-      <c r="M60" s="10"/>
-      <c r="N60" s="9" t="str">
+      <c r="M60" s="11"/>
+      <c r="N60" s="10" t="str">
         <f aca="false">IF(M60="", IF(X60=0, "", X60), IF(V60 = "", "", IF(V60/U60 = 0, "", V60/U60)))</f>
         <v/>
       </c>
@@ -3555,12 +3566,12 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J61" s="1" t="str">
+      <c r="J61" s="2" t="str">
         <f aca="true">IF(M61="", IF(O61="","",X61+(INDIRECT("S" &amp; ROW() - 1) - S61)),IF(O61="", "", INDIRECT("S" &amp; ROW() - 1) - S61))</f>
         <v/>
       </c>
-      <c r="M61" s="10"/>
-      <c r="N61" s="9" t="str">
+      <c r="M61" s="11"/>
+      <c r="N61" s="10" t="str">
         <f aca="false">IF(M61="", IF(X61=0, "", X61), IF(V61 = "", "", IF(V61/U61 = 0, "", V61/U61)))</f>
         <v/>
       </c>
@@ -3602,12 +3613,12 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J62" s="1" t="str">
+      <c r="J62" s="2" t="str">
         <f aca="true">IF(M62="", IF(O62="","",X62+(INDIRECT("S" &amp; ROW() - 1) - S62)),IF(O62="", "", INDIRECT("S" &amp; ROW() - 1) - S62))</f>
         <v/>
       </c>
-      <c r="M62" s="10"/>
-      <c r="N62" s="9" t="str">
+      <c r="M62" s="11"/>
+      <c r="N62" s="10" t="str">
         <f aca="false">IF(M62="", IF(X62=0, "", X62), IF(V62 = "", "", IF(V62/U62 = 0, "", V62/U62)))</f>
         <v/>
       </c>
@@ -3649,12 +3660,12 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J63" s="1" t="str">
+      <c r="J63" s="2" t="str">
         <f aca="true">IF(M63="", IF(O63="","",X63+(INDIRECT("S" &amp; ROW() - 1) - S63)),IF(O63="", "", INDIRECT("S" &amp; ROW() - 1) - S63))</f>
         <v/>
       </c>
-      <c r="M63" s="10"/>
-      <c r="N63" s="9" t="str">
+      <c r="M63" s="11"/>
+      <c r="N63" s="10" t="str">
         <f aca="false">IF(M63="", IF(X63=0, "", X63), IF(V63 = "", "", IF(V63/U63 = 0, "", V63/U63)))</f>
         <v/>
       </c>
@@ -3696,12 +3707,12 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J64" s="1" t="str">
+      <c r="J64" s="2" t="str">
         <f aca="true">IF(M64="", IF(O64="","",X64+(INDIRECT("S" &amp; ROW() - 1) - S64)),IF(O64="", "", INDIRECT("S" &amp; ROW() - 1) - S64))</f>
         <v/>
       </c>
-      <c r="M64" s="10"/>
-      <c r="N64" s="9" t="str">
+      <c r="M64" s="11"/>
+      <c r="N64" s="10" t="str">
         <f aca="false">IF(M64="", IF(X64=0, "", X64), IF(V64 = "", "", IF(V64/U64 = 0, "", V64/U64)))</f>
         <v/>
       </c>
@@ -3743,12 +3754,12 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J65" s="1" t="str">
+      <c r="J65" s="2" t="str">
         <f aca="true">IF(M65="", IF(O65="","",X65+(INDIRECT("S" &amp; ROW() - 1) - S65)),IF(O65="", "", INDIRECT("S" &amp; ROW() - 1) - S65))</f>
         <v/>
       </c>
-      <c r="M65" s="10"/>
-      <c r="N65" s="9" t="str">
+      <c r="M65" s="11"/>
+      <c r="N65" s="10" t="str">
         <f aca="false">IF(M65="", IF(X65=0, "", X65), IF(V65 = "", "", IF(V65/U65 = 0, "", V65/U65)))</f>
         <v/>
       </c>
@@ -3790,12 +3801,12 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J66" s="1" t="str">
+      <c r="J66" s="2" t="str">
         <f aca="true">IF(M66="", IF(O66="","",X66+(INDIRECT("S" &amp; ROW() - 1) - S66)),IF(O66="", "", INDIRECT("S" &amp; ROW() - 1) - S66))</f>
         <v/>
       </c>
-      <c r="M66" s="10"/>
-      <c r="N66" s="9" t="str">
+      <c r="M66" s="11"/>
+      <c r="N66" s="10" t="str">
         <f aca="false">IF(M66="", IF(X66=0, "", X66), IF(V66 = "", "", IF(V66/U66 = 0, "", V66/U66)))</f>
         <v/>
       </c>
@@ -3837,12 +3848,12 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J67" s="1" t="str">
+      <c r="J67" s="2" t="str">
         <f aca="true">IF(M67="", IF(O67="","",X67+(INDIRECT("S" &amp; ROW() - 1) - S67)),IF(O67="", "", INDIRECT("S" &amp; ROW() - 1) - S67))</f>
         <v/>
       </c>
-      <c r="M67" s="10"/>
-      <c r="N67" s="9" t="str">
+      <c r="M67" s="11"/>
+      <c r="N67" s="10" t="str">
         <f aca="false">IF(M67="", IF(X67=0, "", X67), IF(V67 = "", "", IF(V67/U67 = 0, "", V67/U67)))</f>
         <v/>
       </c>
@@ -3884,12 +3895,12 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J68" s="1" t="str">
+      <c r="J68" s="2" t="str">
         <f aca="true">IF(M68="", IF(O68="","",X68+(INDIRECT("S" &amp; ROW() - 1) - S68)),IF(O68="", "", INDIRECT("S" &amp; ROW() - 1) - S68))</f>
         <v/>
       </c>
-      <c r="M68" s="10"/>
-      <c r="N68" s="9" t="str">
+      <c r="M68" s="11"/>
+      <c r="N68" s="10" t="str">
         <f aca="false">IF(M68="", IF(X68=0, "", X68), IF(V68 = "", "", IF(V68/U68 = 0, "", V68/U68)))</f>
         <v/>
       </c>
@@ -3931,12 +3942,12 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J69" s="1" t="str">
+      <c r="J69" s="2" t="str">
         <f aca="true">IF(M69="", IF(O69="","",X69+(INDIRECT("S" &amp; ROW() - 1) - S69)),IF(O69="", "", INDIRECT("S" &amp; ROW() - 1) - S69))</f>
         <v/>
       </c>
-      <c r="M69" s="10"/>
-      <c r="N69" s="9" t="str">
+      <c r="M69" s="11"/>
+      <c r="N69" s="10" t="str">
         <f aca="false">IF(M69="", IF(X69=0, "", X69), IF(V69 = "", "", IF(V69/U69 = 0, "", V69/U69)))</f>
         <v/>
       </c>
@@ -3978,12 +3989,12 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J70" s="1" t="str">
+      <c r="J70" s="2" t="str">
         <f aca="true">IF(M70="", IF(O70="","",X70+(INDIRECT("S" &amp; ROW() - 1) - S70)),IF(O70="", "", INDIRECT("S" &amp; ROW() - 1) - S70))</f>
         <v/>
       </c>
-      <c r="M70" s="10"/>
-      <c r="N70" s="9" t="str">
+      <c r="M70" s="11"/>
+      <c r="N70" s="10" t="str">
         <f aca="false">IF(M70="", IF(X70=0, "", X70), IF(V70 = "", "", IF(V70/U70 = 0, "", V70/U70)))</f>
         <v/>
       </c>
@@ -4025,12 +4036,12 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J71" s="1" t="str">
+      <c r="J71" s="2" t="str">
         <f aca="true">IF(M71="", IF(O71="","",X71+(INDIRECT("S" &amp; ROW() - 1) - S71)),IF(O71="", "", INDIRECT("S" &amp; ROW() - 1) - S71))</f>
         <v/>
       </c>
-      <c r="M71" s="10"/>
-      <c r="N71" s="9" t="str">
+      <c r="M71" s="11"/>
+      <c r="N71" s="10" t="str">
         <f aca="false">IF(M71="", IF(X71=0, "", X71), IF(V71 = "", "", IF(V71/U71 = 0, "", V71/U71)))</f>
         <v/>
       </c>
@@ -4072,12 +4083,12 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J72" s="1" t="str">
+      <c r="J72" s="2" t="str">
         <f aca="true">IF(M72="", IF(O72="","",X72+(INDIRECT("S" &amp; ROW() - 1) - S72)),IF(O72="", "", INDIRECT("S" &amp; ROW() - 1) - S72))</f>
         <v/>
       </c>
-      <c r="M72" s="10"/>
-      <c r="N72" s="9" t="str">
+      <c r="M72" s="11"/>
+      <c r="N72" s="10" t="str">
         <f aca="false">IF(M72="", IF(X72=0, "", X72), IF(V72 = "", "", IF(V72/U72 = 0, "", V72/U72)))</f>
         <v/>
       </c>
@@ -4119,12 +4130,12 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J73" s="1" t="str">
+      <c r="J73" s="2" t="str">
         <f aca="true">IF(M73="", IF(O73="","",X73+(INDIRECT("S" &amp; ROW() - 1) - S73)),IF(O73="", "", INDIRECT("S" &amp; ROW() - 1) - S73))</f>
         <v/>
       </c>
-      <c r="M73" s="10"/>
-      <c r="N73" s="9" t="str">
+      <c r="M73" s="11"/>
+      <c r="N73" s="10" t="str">
         <f aca="false">IF(M73="", IF(X73=0, "", X73), IF(V73 = "", "", IF(V73/U73 = 0, "", V73/U73)))</f>
         <v/>
       </c>
@@ -4166,12 +4177,12 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J74" s="1" t="str">
+      <c r="J74" s="2" t="str">
         <f aca="true">IF(M74="", IF(O74="","",X74+(INDIRECT("S" &amp; ROW() - 1) - S74)),IF(O74="", "", INDIRECT("S" &amp; ROW() - 1) - S74))</f>
         <v/>
       </c>
-      <c r="M74" s="10"/>
-      <c r="N74" s="9" t="str">
+      <c r="M74" s="11"/>
+      <c r="N74" s="10" t="str">
         <f aca="false">IF(M74="", IF(X74=0, "", X74), IF(V74 = "", "", IF(V74/U74 = 0, "", V74/U74)))</f>
         <v/>
       </c>
@@ -4213,12 +4224,12 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J75" s="1" t="str">
+      <c r="J75" s="2" t="str">
         <f aca="true">IF(M75="", IF(O75="","",X75+(INDIRECT("S" &amp; ROW() - 1) - S75)),IF(O75="", "", INDIRECT("S" &amp; ROW() - 1) - S75))</f>
         <v/>
       </c>
-      <c r="M75" s="10"/>
-      <c r="N75" s="9" t="str">
+      <c r="M75" s="11"/>
+      <c r="N75" s="10" t="str">
         <f aca="false">IF(M75="", IF(X75=0, "", X75), IF(V75 = "", "", IF(V75/U75 = 0, "", V75/U75)))</f>
         <v/>
       </c>
@@ -4260,12 +4271,12 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J76" s="1" t="str">
+      <c r="J76" s="2" t="str">
         <f aca="true">IF(M76="", IF(O76="","",X76+(INDIRECT("S" &amp; ROW() - 1) - S76)),IF(O76="", "", INDIRECT("S" &amp; ROW() - 1) - S76))</f>
         <v/>
       </c>
-      <c r="M76" s="10"/>
-      <c r="N76" s="9" t="str">
+      <c r="M76" s="11"/>
+      <c r="N76" s="10" t="str">
         <f aca="false">IF(M76="", IF(X76=0, "", X76), IF(V76 = "", "", IF(V76/U76 = 0, "", V76/U76)))</f>
         <v/>
       </c>
@@ -4307,12 +4318,12 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J77" s="1" t="str">
+      <c r="J77" s="2" t="str">
         <f aca="true">IF(M77="", IF(O77="","",X77+(INDIRECT("S" &amp; ROW() - 1) - S77)),IF(O77="", "", INDIRECT("S" &amp; ROW() - 1) - S77))</f>
         <v/>
       </c>
-      <c r="M77" s="10"/>
-      <c r="N77" s="9" t="str">
+      <c r="M77" s="11"/>
+      <c r="N77" s="10" t="str">
         <f aca="false">IF(M77="", IF(X77=0, "", X77), IF(V77 = "", "", IF(V77/U77 = 0, "", V77/U77)))</f>
         <v/>
       </c>
@@ -4354,12 +4365,12 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J78" s="1" t="str">
+      <c r="J78" s="2" t="str">
         <f aca="true">IF(M78="", IF(O78="","",X78+(INDIRECT("S" &amp; ROW() - 1) - S78)),IF(O78="", "", INDIRECT("S" &amp; ROW() - 1) - S78))</f>
         <v/>
       </c>
-      <c r="M78" s="10"/>
-      <c r="N78" s="9" t="str">
+      <c r="M78" s="11"/>
+      <c r="N78" s="10" t="str">
         <f aca="false">IF(M78="", IF(X78=0, "", X78), IF(V78 = "", "", IF(V78/U78 = 0, "", V78/U78)))</f>
         <v/>
       </c>
@@ -4401,12 +4412,12 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J79" s="1" t="str">
+      <c r="J79" s="2" t="str">
         <f aca="true">IF(M79="", IF(O79="","",X79+(INDIRECT("S" &amp; ROW() - 1) - S79)),IF(O79="", "", INDIRECT("S" &amp; ROW() - 1) - S79))</f>
         <v/>
       </c>
-      <c r="M79" s="10"/>
-      <c r="N79" s="9" t="str">
+      <c r="M79" s="11"/>
+      <c r="N79" s="10" t="str">
         <f aca="false">IF(M79="", IF(X79=0, "", X79), IF(V79 = "", "", IF(V79/U79 = 0, "", V79/U79)))</f>
         <v/>
       </c>
@@ -4448,12 +4459,12 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J80" s="1" t="str">
+      <c r="J80" s="2" t="str">
         <f aca="true">IF(M80="", IF(O80="","",X80+(INDIRECT("S" &amp; ROW() - 1) - S80)),IF(O80="", "", INDIRECT("S" &amp; ROW() - 1) - S80))</f>
         <v/>
       </c>
-      <c r="M80" s="10"/>
-      <c r="N80" s="9" t="str">
+      <c r="M80" s="11"/>
+      <c r="N80" s="10" t="str">
         <f aca="false">IF(M80="", IF(X80=0, "", X80), IF(V80 = "", "", IF(V80/U80 = 0, "", V80/U80)))</f>
         <v/>
       </c>
@@ -4495,12 +4506,12 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J81" s="1" t="str">
+      <c r="J81" s="2" t="str">
         <f aca="true">IF(M81="", IF(O81="","",X81+(INDIRECT("S" &amp; ROW() - 1) - S81)),IF(O81="", "", INDIRECT("S" &amp; ROW() - 1) - S81))</f>
         <v/>
       </c>
-      <c r="M81" s="10"/>
-      <c r="N81" s="9" t="str">
+      <c r="M81" s="11"/>
+      <c r="N81" s="10" t="str">
         <f aca="false">IF(M81="", IF(X81=0, "", X81), IF(V81 = "", "", IF(V81/U81 = 0, "", V81/U81)))</f>
         <v/>
       </c>
@@ -4542,12 +4553,12 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J82" s="1" t="str">
+      <c r="J82" s="2" t="str">
         <f aca="true">IF(M82="", IF(O82="","",X82+(INDIRECT("S" &amp; ROW() - 1) - S82)),IF(O82="", "", INDIRECT("S" &amp; ROW() - 1) - S82))</f>
         <v/>
       </c>
-      <c r="M82" s="10"/>
-      <c r="N82" s="9" t="str">
+      <c r="M82" s="11"/>
+      <c r="N82" s="10" t="str">
         <f aca="false">IF(M82="", IF(X82=0, "", X82), IF(V82 = "", "", IF(V82/U82 = 0, "", V82/U82)))</f>
         <v/>
       </c>
@@ -4589,12 +4600,12 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J83" s="1" t="str">
+      <c r="J83" s="2" t="str">
         <f aca="true">IF(M83="", IF(O83="","",X83+(INDIRECT("S" &amp; ROW() - 1) - S83)),IF(O83="", "", INDIRECT("S" &amp; ROW() - 1) - S83))</f>
         <v/>
       </c>
-      <c r="M83" s="10"/>
-      <c r="N83" s="9" t="str">
+      <c r="M83" s="11"/>
+      <c r="N83" s="10" t="str">
         <f aca="false">IF(M83="", IF(X83=0, "", X83), IF(V83 = "", "", IF(V83/U83 = 0, "", V83/U83)))</f>
         <v/>
       </c>
@@ -4636,12 +4647,12 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J84" s="1" t="str">
+      <c r="J84" s="2" t="str">
         <f aca="true">IF(M84="", IF(O84="","",X84+(INDIRECT("S" &amp; ROW() - 1) - S84)),IF(O84="", "", INDIRECT("S" &amp; ROW() - 1) - S84))</f>
         <v/>
       </c>
-      <c r="M84" s="10"/>
-      <c r="N84" s="9" t="str">
+      <c r="M84" s="11"/>
+      <c r="N84" s="10" t="str">
         <f aca="false">IF(M84="", IF(X84=0, "", X84), IF(V84 = "", "", IF(V84/U84 = 0, "", V84/U84)))</f>
         <v/>
       </c>
@@ -4683,12 +4694,12 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J85" s="1" t="str">
+      <c r="J85" s="2" t="str">
         <f aca="true">IF(M85="", IF(O85="","",X85+(INDIRECT("S" &amp; ROW() - 1) - S85)),IF(O85="", "", INDIRECT("S" &amp; ROW() - 1) - S85))</f>
         <v/>
       </c>
-      <c r="M85" s="10"/>
-      <c r="N85" s="9" t="str">
+      <c r="M85" s="11"/>
+      <c r="N85" s="10" t="str">
         <f aca="false">IF(M85="", IF(X85=0, "", X85), IF(V85 = "", "", IF(V85/U85 = 0, "", V85/U85)))</f>
         <v/>
       </c>
@@ -4730,12 +4741,12 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J86" s="1" t="str">
+      <c r="J86" s="2" t="str">
         <f aca="true">IF(M86="", IF(O86="","",X86+(INDIRECT("S" &amp; ROW() - 1) - S86)),IF(O86="", "", INDIRECT("S" &amp; ROW() - 1) - S86))</f>
         <v/>
       </c>
-      <c r="M86" s="10"/>
-      <c r="N86" s="9" t="str">
+      <c r="M86" s="11"/>
+      <c r="N86" s="10" t="str">
         <f aca="false">IF(M86="", IF(X86=0, "", X86), IF(V86 = "", "", IF(V86/U86 = 0, "", V86/U86)))</f>
         <v/>
       </c>
@@ -4777,12 +4788,12 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J87" s="1" t="str">
+      <c r="J87" s="2" t="str">
         <f aca="true">IF(M87="", IF(O87="","",X87+(INDIRECT("S" &amp; ROW() - 1) - S87)),IF(O87="", "", INDIRECT("S" &amp; ROW() - 1) - S87))</f>
         <v/>
       </c>
-      <c r="M87" s="10"/>
-      <c r="N87" s="9" t="str">
+      <c r="M87" s="11"/>
+      <c r="N87" s="10" t="str">
         <f aca="false">IF(M87="", IF(X87=0, "", X87), IF(V87 = "", "", IF(V87/U87 = 0, "", V87/U87)))</f>
         <v/>
       </c>
@@ -4824,12 +4835,12 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J88" s="1" t="str">
+      <c r="J88" s="2" t="str">
         <f aca="true">IF(M88="", IF(O88="","",X88+(INDIRECT("S" &amp; ROW() - 1) - S88)),IF(O88="", "", INDIRECT("S" &amp; ROW() - 1) - S88))</f>
         <v/>
       </c>
-      <c r="M88" s="10"/>
-      <c r="N88" s="9" t="str">
+      <c r="M88" s="11"/>
+      <c r="N88" s="10" t="str">
         <f aca="false">IF(M88="", IF(X88=0, "", X88), IF(V88 = "", "", IF(V88/U88 = 0, "", V88/U88)))</f>
         <v/>
       </c>
@@ -4871,12 +4882,12 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J89" s="1" t="str">
+      <c r="J89" s="2" t="str">
         <f aca="true">IF(M89="", IF(O89="","",X89+(INDIRECT("S" &amp; ROW() - 1) - S89)),IF(O89="", "", INDIRECT("S" &amp; ROW() - 1) - S89))</f>
         <v/>
       </c>
-      <c r="M89" s="10"/>
-      <c r="N89" s="9" t="str">
+      <c r="M89" s="11"/>
+      <c r="N89" s="10" t="str">
         <f aca="false">IF(M89="", IF(X89=0, "", X89), IF(V89 = "", "", IF(V89/U89 = 0, "", V89/U89)))</f>
         <v/>
       </c>
@@ -4918,12 +4929,12 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J90" s="1" t="str">
+      <c r="J90" s="2" t="str">
         <f aca="true">IF(M90="", IF(O90="","",X90+(INDIRECT("S" &amp; ROW() - 1) - S90)),IF(O90="", "", INDIRECT("S" &amp; ROW() - 1) - S90))</f>
         <v/>
       </c>
-      <c r="M90" s="10"/>
-      <c r="N90" s="9" t="str">
+      <c r="M90" s="11"/>
+      <c r="N90" s="10" t="str">
         <f aca="false">IF(M90="", IF(X90=0, "", X90), IF(V90 = "", "", IF(V90/U90 = 0, "", V90/U90)))</f>
         <v/>
       </c>
@@ -4965,12 +4976,12 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J91" s="1" t="str">
+      <c r="J91" s="2" t="str">
         <f aca="true">IF(M91="", IF(O91="","",X91+(INDIRECT("S" &amp; ROW() - 1) - S91)),IF(O91="", "", INDIRECT("S" &amp; ROW() - 1) - S91))</f>
         <v/>
       </c>
-      <c r="M91" s="10"/>
-      <c r="N91" s="9" t="str">
+      <c r="M91" s="11"/>
+      <c r="N91" s="10" t="str">
         <f aca="false">IF(M91="", IF(X91=0, "", X91), IF(V91 = "", "", IF(V91/U91 = 0, "", V91/U91)))</f>
         <v/>
       </c>
@@ -5012,12 +5023,12 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J92" s="1" t="str">
+      <c r="J92" s="2" t="str">
         <f aca="true">IF(M92="", IF(O92="","",X92+(INDIRECT("S" &amp; ROW() - 1) - S92)),IF(O92="", "", INDIRECT("S" &amp; ROW() - 1) - S92))</f>
         <v/>
       </c>
-      <c r="M92" s="10"/>
-      <c r="N92" s="9" t="str">
+      <c r="M92" s="11"/>
+      <c r="N92" s="10" t="str">
         <f aca="false">IF(M92="", IF(X92=0, "", X92), IF(V92 = "", "", IF(V92/U92 = 0, "", V92/U92)))</f>
         <v/>
       </c>
@@ -5059,12 +5070,12 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J93" s="1" t="str">
+      <c r="J93" s="2" t="str">
         <f aca="true">IF(M93="", IF(O93="","",X93+(INDIRECT("S" &amp; ROW() - 1) - S93)),IF(O93="", "", INDIRECT("S" &amp; ROW() - 1) - S93))</f>
         <v/>
       </c>
-      <c r="M93" s="10"/>
-      <c r="N93" s="9" t="str">
+      <c r="M93" s="11"/>
+      <c r="N93" s="10" t="str">
         <f aca="false">IF(M93="", IF(X93=0, "", X93), IF(V93 = "", "", IF(V93/U93 = 0, "", V93/U93)))</f>
         <v/>
       </c>
@@ -5106,12 +5117,12 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J94" s="1" t="str">
+      <c r="J94" s="2" t="str">
         <f aca="true">IF(M94="", IF(O94="","",X94+(INDIRECT("S" &amp; ROW() - 1) - S94)),IF(O94="", "", INDIRECT("S" &amp; ROW() - 1) - S94))</f>
         <v/>
       </c>
-      <c r="M94" s="10"/>
-      <c r="N94" s="9" t="str">
+      <c r="M94" s="11"/>
+      <c r="N94" s="10" t="str">
         <f aca="false">IF(M94="", IF(X94=0, "", X94), IF(V94 = "", "", IF(V94/U94 = 0, "", V94/U94)))</f>
         <v/>
       </c>
@@ -5153,12 +5164,12 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J95" s="1" t="str">
+      <c r="J95" s="2" t="str">
         <f aca="true">IF(M95="", IF(O95="","",X95+(INDIRECT("S" &amp; ROW() - 1) - S95)),IF(O95="", "", INDIRECT("S" &amp; ROW() - 1) - S95))</f>
         <v/>
       </c>
-      <c r="M95" s="10"/>
-      <c r="N95" s="9" t="str">
+      <c r="M95" s="11"/>
+      <c r="N95" s="10" t="str">
         <f aca="false">IF(M95="", IF(X95=0, "", X95), IF(V95 = "", "", IF(V95/U95 = 0, "", V95/U95)))</f>
         <v/>
       </c>
@@ -5200,12 +5211,12 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J96" s="1" t="str">
+      <c r="J96" s="2" t="str">
         <f aca="true">IF(M96="", IF(O96="","",X96+(INDIRECT("S" &amp; ROW() - 1) - S96)),IF(O96="", "", INDIRECT("S" &amp; ROW() - 1) - S96))</f>
         <v/>
       </c>
-      <c r="M96" s="10"/>
-      <c r="N96" s="9" t="str">
+      <c r="M96" s="11"/>
+      <c r="N96" s="10" t="str">
         <f aca="false">IF(M96="", IF(X96=0, "", X96), IF(V96 = "", "", IF(V96/U96 = 0, "", V96/U96)))</f>
         <v/>
       </c>
@@ -5247,12 +5258,12 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J97" s="1" t="str">
+      <c r="J97" s="2" t="str">
         <f aca="true">IF(M97="", IF(O97="","",X97+(INDIRECT("S" &amp; ROW() - 1) - S97)),IF(O97="", "", INDIRECT("S" &amp; ROW() - 1) - S97))</f>
         <v/>
       </c>
-      <c r="M97" s="10"/>
-      <c r="N97" s="9" t="str">
+      <c r="M97" s="11"/>
+      <c r="N97" s="10" t="str">
         <f aca="false">IF(M97="", IF(X97=0, "", X97), IF(V97 = "", "", IF(V97/U97 = 0, "", V97/U97)))</f>
         <v/>
       </c>
@@ -5294,12 +5305,12 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J98" s="1" t="str">
+      <c r="J98" s="2" t="str">
         <f aca="true">IF(M98="", IF(O98="","",X98+(INDIRECT("S" &amp; ROW() - 1) - S98)),IF(O98="", "", INDIRECT("S" &amp; ROW() - 1) - S98))</f>
         <v/>
       </c>
-      <c r="M98" s="10"/>
-      <c r="N98" s="9" t="str">
+      <c r="M98" s="11"/>
+      <c r="N98" s="10" t="str">
         <f aca="false">IF(M98="", IF(X98=0, "", X98), IF(V98 = "", "", IF(V98/U98 = 0, "", V98/U98)))</f>
         <v/>
       </c>
@@ -5341,12 +5352,12 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J99" s="1" t="str">
+      <c r="J99" s="2" t="str">
         <f aca="true">IF(M99="", IF(O99="","",X99+(INDIRECT("S" &amp; ROW() - 1) - S99)),IF(O99="", "", INDIRECT("S" &amp; ROW() - 1) - S99))</f>
         <v/>
       </c>
-      <c r="M99" s="10"/>
-      <c r="N99" s="9" t="str">
+      <c r="M99" s="11"/>
+      <c r="N99" s="10" t="str">
         <f aca="false">IF(M99="", IF(X99=0, "", X99), IF(V99 = "", "", IF(V99/U99 = 0, "", V99/U99)))</f>
         <v/>
       </c>
@@ -5388,12 +5399,12 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J100" s="1" t="str">
+      <c r="J100" s="2" t="str">
         <f aca="true">IF(M100="", IF(O100="","",X100+(INDIRECT("S" &amp; ROW() - 1) - S100)),IF(O100="", "", INDIRECT("S" &amp; ROW() - 1) - S100))</f>
         <v/>
       </c>
-      <c r="M100" s="10"/>
-      <c r="N100" s="9" t="str">
+      <c r="M100" s="11"/>
+      <c r="N100" s="10" t="str">
         <f aca="false">IF(M100="", IF(X100=0, "", X100), IF(V100 = "", "", IF(V100/U100 = 0, "", V100/U100)))</f>
         <v/>
       </c>
@@ -5435,12 +5446,12 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J101" s="1" t="str">
+      <c r="J101" s="2" t="str">
         <f aca="true">IF(M101="", IF(O101="","",X101+(INDIRECT("S" &amp; ROW() - 1) - S101)),IF(O101="", "", INDIRECT("S" &amp; ROW() - 1) - S101))</f>
         <v/>
       </c>
-      <c r="M101" s="10"/>
-      <c r="N101" s="9" t="str">
+      <c r="M101" s="11"/>
+      <c r="N101" s="10" t="str">
         <f aca="false">IF(M101="", IF(X101=0, "", X101), IF(V101 = "", "", IF(V101/U101 = 0, "", V101/U101)))</f>
         <v/>
       </c>
@@ -5482,12 +5493,12 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J102" s="1" t="str">
+      <c r="J102" s="2" t="str">
         <f aca="true">IF(M102="", IF(O102="","",X102+(INDIRECT("S" &amp; ROW() - 1) - S102)),IF(O102="", "", INDIRECT("S" &amp; ROW() - 1) - S102))</f>
         <v/>
       </c>
-      <c r="M102" s="10"/>
-      <c r="N102" s="9" t="str">
+      <c r="M102" s="11"/>
+      <c r="N102" s="10" t="str">
         <f aca="false">IF(M102="", IF(X102=0, "", X102), IF(V102 = "", "", IF(V102/U102 = 0, "", V102/U102)))</f>
         <v/>
       </c>
@@ -5529,12 +5540,12 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J103" s="1" t="str">
+      <c r="J103" s="2" t="str">
         <f aca="true">IF(M103="", IF(O103="","",X103+(INDIRECT("S" &amp; ROW() - 1) - S103)),IF(O103="", "", INDIRECT("S" &amp; ROW() - 1) - S103))</f>
         <v/>
       </c>
-      <c r="M103" s="10"/>
-      <c r="N103" s="9" t="str">
+      <c r="M103" s="11"/>
+      <c r="N103" s="10" t="str">
         <f aca="false">IF(M103="", IF(X103=0, "", X103), IF(V103 = "", "", IF(V103/U103 = 0, "", V103/U103)))</f>
         <v/>
       </c>
@@ -5576,12 +5587,12 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J104" s="1" t="str">
+      <c r="J104" s="2" t="str">
         <f aca="true">IF(M104="", IF(O104="","",X104+(INDIRECT("S" &amp; ROW() - 1) - S104)),IF(O104="", "", INDIRECT("S" &amp; ROW() - 1) - S104))</f>
         <v/>
       </c>
-      <c r="M104" s="10"/>
-      <c r="N104" s="9" t="str">
+      <c r="M104" s="11"/>
+      <c r="N104" s="10" t="str">
         <f aca="false">IF(M104="", IF(X104=0, "", X104), IF(V104 = "", "", IF(V104/U104 = 0, "", V104/U104)))</f>
         <v/>
       </c>
@@ -5623,12 +5634,12 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J105" s="1" t="str">
+      <c r="J105" s="2" t="str">
         <f aca="true">IF(M105="", IF(O105="","",X105+(INDIRECT("S" &amp; ROW() - 1) - S105)),IF(O105="", "", INDIRECT("S" &amp; ROW() - 1) - S105))</f>
         <v/>
       </c>
-      <c r="M105" s="10"/>
-      <c r="N105" s="9" t="str">
+      <c r="M105" s="11"/>
+      <c r="N105" s="10" t="str">
         <f aca="false">IF(M105="", IF(X105=0, "", X105), IF(V105 = "", "", IF(V105/U105 = 0, "", V105/U105)))</f>
         <v/>
       </c>
@@ -5670,12 +5681,12 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J106" s="1" t="str">
+      <c r="J106" s="2" t="str">
         <f aca="true">IF(M106="", IF(O106="","",X106+(INDIRECT("S" &amp; ROW() - 1) - S106)),IF(O106="", "", INDIRECT("S" &amp; ROW() - 1) - S106))</f>
         <v/>
       </c>
-      <c r="M106" s="10"/>
-      <c r="N106" s="9" t="str">
+      <c r="M106" s="11"/>
+      <c r="N106" s="10" t="str">
         <f aca="false">IF(M106="", IF(X106=0, "", X106), IF(V106 = "", "", IF(V106/U106 = 0, "", V106/U106)))</f>
         <v/>
       </c>
@@ -5717,12 +5728,12 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J107" s="1" t="str">
+      <c r="J107" s="2" t="str">
         <f aca="true">IF(M107="", IF(O107="","",X107+(INDIRECT("S" &amp; ROW() - 1) - S107)),IF(O107="", "", INDIRECT("S" &amp; ROW() - 1) - S107))</f>
         <v/>
       </c>
-      <c r="M107" s="10"/>
-      <c r="N107" s="9" t="str">
+      <c r="M107" s="11"/>
+      <c r="N107" s="10" t="str">
         <f aca="false">IF(M107="", IF(X107=0, "", X107), IF(V107 = "", "", IF(V107/U107 = 0, "", V107/U107)))</f>
         <v/>
       </c>
@@ -5764,12 +5775,12 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J108" s="1" t="str">
+      <c r="J108" s="2" t="str">
         <f aca="true">IF(M108="", IF(O108="","",X108+(INDIRECT("S" &amp; ROW() - 1) - S108)),IF(O108="", "", INDIRECT("S" &amp; ROW() - 1) - S108))</f>
         <v/>
       </c>
-      <c r="M108" s="10"/>
-      <c r="N108" s="9" t="str">
+      <c r="M108" s="11"/>
+      <c r="N108" s="10" t="str">
         <f aca="false">IF(M108="", IF(X108=0, "", X108), IF(V108 = "", "", IF(V108/U108 = 0, "", V108/U108)))</f>
         <v/>
       </c>
@@ -5811,12 +5822,12 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J109" s="1" t="str">
+      <c r="J109" s="2" t="str">
         <f aca="true">IF(M109="", IF(O109="","",X109+(INDIRECT("S" &amp; ROW() - 1) - S109)),IF(O109="", "", INDIRECT("S" &amp; ROW() - 1) - S109))</f>
         <v/>
       </c>
-      <c r="M109" s="10"/>
-      <c r="N109" s="9" t="str">
+      <c r="M109" s="11"/>
+      <c r="N109" s="10" t="str">
         <f aca="false">IF(M109="", IF(X109=0, "", X109), IF(V109 = "", "", IF(V109/U109 = 0, "", V109/U109)))</f>
         <v/>
       </c>
@@ -5858,12 +5869,12 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J110" s="1" t="str">
+      <c r="J110" s="2" t="str">
         <f aca="true">IF(M110="", IF(O110="","",X110+(INDIRECT("S" &amp; ROW() - 1) - S110)),IF(O110="", "", INDIRECT("S" &amp; ROW() - 1) - S110))</f>
         <v/>
       </c>
-      <c r="M110" s="10"/>
-      <c r="N110" s="9" t="str">
+      <c r="M110" s="11"/>
+      <c r="N110" s="10" t="str">
         <f aca="false">IF(M110="", IF(X110=0, "", X110), IF(V110 = "", "", IF(V110/U110 = 0, "", V110/U110)))</f>
         <v/>
       </c>
@@ -5905,12 +5916,12 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J111" s="1" t="str">
+      <c r="J111" s="2" t="str">
         <f aca="true">IF(M111="", IF(O111="","",X111+(INDIRECT("S" &amp; ROW() - 1) - S111)),IF(O111="", "", INDIRECT("S" &amp; ROW() - 1) - S111))</f>
         <v/>
       </c>
-      <c r="M111" s="10"/>
-      <c r="N111" s="9" t="str">
+      <c r="M111" s="11"/>
+      <c r="N111" s="10" t="str">
         <f aca="false">IF(M111="", IF(X111=0, "", X111), IF(V111 = "", "", IF(V111/U111 = 0, "", V111/U111)))</f>
         <v/>
       </c>
@@ -5952,12 +5963,12 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J112" s="1" t="str">
+      <c r="J112" s="2" t="str">
         <f aca="true">IF(M112="", IF(O112="","",X112+(INDIRECT("S" &amp; ROW() - 1) - S112)),IF(O112="", "", INDIRECT("S" &amp; ROW() - 1) - S112))</f>
         <v/>
       </c>
-      <c r="M112" s="10"/>
-      <c r="N112" s="9" t="str">
+      <c r="M112" s="11"/>
+      <c r="N112" s="10" t="str">
         <f aca="false">IF(M112="", IF(X112=0, "", X112), IF(V112 = "", "", IF(V112/U112 = 0, "", V112/U112)))</f>
         <v/>
       </c>
@@ -5999,12 +6010,12 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J113" s="1" t="str">
+      <c r="J113" s="2" t="str">
         <f aca="true">IF(M113="", IF(O113="","",X113+(INDIRECT("S" &amp; ROW() - 1) - S113)),IF(O113="", "", INDIRECT("S" &amp; ROW() - 1) - S113))</f>
         <v/>
       </c>
-      <c r="M113" s="10"/>
-      <c r="N113" s="9" t="str">
+      <c r="M113" s="11"/>
+      <c r="N113" s="10" t="str">
         <f aca="false">IF(M113="", IF(X113=0, "", X113), IF(V113 = "", "", IF(V113/U113 = 0, "", V113/U113)))</f>
         <v/>
       </c>
@@ -6046,12 +6057,12 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J114" s="1" t="str">
+      <c r="J114" s="2" t="str">
         <f aca="true">IF(M114="", IF(O114="","",X114+(INDIRECT("S" &amp; ROW() - 1) - S114)),IF(O114="", "", INDIRECT("S" &amp; ROW() - 1) - S114))</f>
         <v/>
       </c>
-      <c r="M114" s="10"/>
-      <c r="N114" s="9" t="str">
+      <c r="M114" s="11"/>
+      <c r="N114" s="10" t="str">
         <f aca="false">IF(M114="", IF(X114=0, "", X114), IF(V114 = "", "", IF(V114/U114 = 0, "", V114/U114)))</f>
         <v/>
       </c>
@@ -6093,12 +6104,12 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J115" s="1" t="str">
+      <c r="J115" s="2" t="str">
         <f aca="true">IF(M115="", IF(O115="","",X115+(INDIRECT("S" &amp; ROW() - 1) - S115)),IF(O115="", "", INDIRECT("S" &amp; ROW() - 1) - S115))</f>
         <v/>
       </c>
-      <c r="M115" s="10"/>
-      <c r="N115" s="9" t="str">
+      <c r="M115" s="11"/>
+      <c r="N115" s="10" t="str">
         <f aca="false">IF(M115="", IF(X115=0, "", X115), IF(V115 = "", "", IF(V115/U115 = 0, "", V115/U115)))</f>
         <v/>
       </c>
@@ -6140,12 +6151,12 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J116" s="1" t="str">
+      <c r="J116" s="2" t="str">
         <f aca="true">IF(M116="", IF(O116="","",X116+(INDIRECT("S" &amp; ROW() - 1) - S116)),IF(O116="", "", INDIRECT("S" &amp; ROW() - 1) - S116))</f>
         <v/>
       </c>
-      <c r="M116" s="10"/>
-      <c r="N116" s="9" t="str">
+      <c r="M116" s="11"/>
+      <c r="N116" s="10" t="str">
         <f aca="false">IF(M116="", IF(X116=0, "", X116), IF(V116 = "", "", IF(V116/U116 = 0, "", V116/U116)))</f>
         <v/>
       </c>
@@ -6187,12 +6198,12 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J117" s="1" t="str">
+      <c r="J117" s="2" t="str">
         <f aca="true">IF(M117="", IF(O117="","",X117+(INDIRECT("S" &amp; ROW() - 1) - S117)),IF(O117="", "", INDIRECT("S" &amp; ROW() - 1) - S117))</f>
         <v/>
       </c>
-      <c r="M117" s="10"/>
-      <c r="N117" s="9" t="str">
+      <c r="M117" s="11"/>
+      <c r="N117" s="10" t="str">
         <f aca="false">IF(M117="", IF(X117=0, "", X117), IF(V117 = "", "", IF(V117/U117 = 0, "", V117/U117)))</f>
         <v/>
       </c>
@@ -6234,12 +6245,12 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J118" s="1" t="str">
+      <c r="J118" s="2" t="str">
         <f aca="true">IF(M118="", IF(O118="","",X118+(INDIRECT("S" &amp; ROW() - 1) - S118)),IF(O118="", "", INDIRECT("S" &amp; ROW() - 1) - S118))</f>
         <v/>
       </c>
-      <c r="M118" s="10"/>
-      <c r="N118" s="9" t="str">
+      <c r="M118" s="11"/>
+      <c r="N118" s="10" t="str">
         <f aca="false">IF(M118="", IF(X118=0, "", X118), IF(V118 = "", "", IF(V118/U118 = 0, "", V118/U118)))</f>
         <v/>
       </c>
@@ -6281,12 +6292,12 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J119" s="1" t="str">
+      <c r="J119" s="2" t="str">
         <f aca="true">IF(M119="", IF(O119="","",X119+(INDIRECT("S" &amp; ROW() - 1) - S119)),IF(O119="", "", INDIRECT("S" &amp; ROW() - 1) - S119))</f>
         <v/>
       </c>
-      <c r="M119" s="10"/>
-      <c r="N119" s="9" t="str">
+      <c r="M119" s="11"/>
+      <c r="N119" s="10" t="str">
         <f aca="false">IF(M119="", IF(X119=0, "", X119), IF(V119 = "", "", IF(V119/U119 = 0, "", V119/U119)))</f>
         <v/>
       </c>
@@ -6328,12 +6339,12 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J120" s="1" t="str">
+      <c r="J120" s="2" t="str">
         <f aca="true">IF(M120="", IF(O120="","",X120+(INDIRECT("S" &amp; ROW() - 1) - S120)),IF(O120="", "", INDIRECT("S" &amp; ROW() - 1) - S120))</f>
         <v/>
       </c>
-      <c r="M120" s="10"/>
-      <c r="N120" s="9" t="str">
+      <c r="M120" s="11"/>
+      <c r="N120" s="10" t="str">
         <f aca="false">IF(M120="", IF(X120=0, "", X120), IF(V120 = "", "", IF(V120/U120 = 0, "", V120/U120)))</f>
         <v/>
       </c>
@@ -6375,12 +6386,12 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J121" s="1" t="str">
+      <c r="J121" s="2" t="str">
         <f aca="true">IF(M121="", IF(O121="","",X121+(INDIRECT("S" &amp; ROW() - 1) - S121)),IF(O121="", "", INDIRECT("S" &amp; ROW() - 1) - S121))</f>
         <v/>
       </c>
-      <c r="M121" s="10"/>
-      <c r="N121" s="9" t="str">
+      <c r="M121" s="11"/>
+      <c r="N121" s="10" t="str">
         <f aca="false">IF(M121="", IF(X121=0, "", X121), IF(V121 = "", "", IF(V121/U121 = 0, "", V121/U121)))</f>
         <v/>
       </c>
@@ -6422,12 +6433,12 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J122" s="1" t="str">
+      <c r="J122" s="2" t="str">
         <f aca="true">IF(M122="", IF(O122="","",X122+(INDIRECT("S" &amp; ROW() - 1) - S122)),IF(O122="", "", INDIRECT("S" &amp; ROW() - 1) - S122))</f>
         <v/>
       </c>
-      <c r="M122" s="10"/>
-      <c r="N122" s="9" t="str">
+      <c r="M122" s="11"/>
+      <c r="N122" s="10" t="str">
         <f aca="false">IF(M122="", IF(X122=0, "", X122), IF(V122 = "", "", IF(V122/U122 = 0, "", V122/U122)))</f>
         <v/>
       </c>

--- a/app/data/static/templates/constructor_schedule.xlsx
+++ b/app/data/static/templates/constructor_schedule.xlsx
@@ -202,10 +202,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -292,7 +292,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -338,6 +338,19 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -439,14 +452,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AM6" activeCellId="0" sqref="AM6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="576" min="5" style="1" width="2.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="577" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="576" min="5" style="1" width="2.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="577" style="1" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -694,7 +707,7 @@
       <selection pane="bottomRight" activeCell="N36" activeCellId="0" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
@@ -791,7 +804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="9"/>
       <c r="J2" s="2" t="str">
         <f aca="true">IF(M2="", IF(O2="","",X2+(INDIRECT("S" &amp; ROW() - 1) - S2)),IF(O2="", "", INDIRECT("S" &amp; ROW() - 1) - S2))</f>
@@ -839,7 +852,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J3" s="2" t="str">
         <f aca="true">IF(M3="", IF(O3="","",X3+(INDIRECT("S" &amp; ROW() - 1) - S3)),IF(O3="", "", INDIRECT("S" &amp; ROW() - 1) - S3))</f>
         <v/>
@@ -886,7 +899,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J4" s="2" t="str">
         <f aca="true">IF(M4="", IF(O4="","",X4+(INDIRECT("S" &amp; ROW() - 1) - S4)),IF(O4="", "", INDIRECT("S" &amp; ROW() - 1) - S4))</f>
         <v/>
@@ -933,7 +946,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J5" s="2" t="str">
         <f aca="true">IF(M5="", IF(O5="","",X5+(INDIRECT("S" &amp; ROW() - 1) - S5)),IF(O5="", "", INDIRECT("S" &amp; ROW() - 1) - S5))</f>
         <v/>
@@ -980,7 +993,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="2" t="str">
         <f aca="true">IF(M6="", IF(O6="","",X6+(INDIRECT("S" &amp; ROW() - 1) - S6)),IF(O6="", "", INDIRECT("S" &amp; ROW() - 1) - S6))</f>
         <v/>
@@ -1027,7 +1040,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J7" s="2" t="str">
         <f aca="true">IF(M7="", IF(O7="","",X7+(INDIRECT("S" &amp; ROW() - 1) - S7)),IF(O7="", "", INDIRECT("S" &amp; ROW() - 1) - S7))</f>
         <v/>
@@ -1074,7 +1087,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J8" s="2" t="str">
         <f aca="true">IF(M8="", IF(O8="","",X8+(INDIRECT("S" &amp; ROW() - 1) - S8)),IF(O8="", "", INDIRECT("S" &amp; ROW() - 1) - S8))</f>
         <v/>
@@ -1121,7 +1134,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="2" t="str">
         <f aca="true">IF(M9="", IF(O9="","",X9+(INDIRECT("S" &amp; ROW() - 1) - S9)),IF(O9="", "", INDIRECT("S" &amp; ROW() - 1) - S9))</f>
         <v/>
@@ -1168,7 +1181,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="2" t="str">
         <f aca="true">IF(M10="", IF(O10="","",X10+(INDIRECT("S" &amp; ROW() - 1) - S10)),IF(O10="", "", INDIRECT("S" &amp; ROW() - 1) - S10))</f>
         <v/>
@@ -1215,7 +1228,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="2" t="str">
         <f aca="true">IF(M11="", IF(O11="","",X11+(INDIRECT("S" &amp; ROW() - 1) - S11)),IF(O11="", "", INDIRECT("S" &amp; ROW() - 1) - S11))</f>
         <v/>
@@ -1262,7 +1275,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="2" t="str">
         <f aca="true">IF(M12="", IF(O12="","",X12+(INDIRECT("S" &amp; ROW() - 1) - S12)),IF(O12="", "", INDIRECT("S" &amp; ROW() - 1) - S12))</f>
         <v/>
@@ -1309,7 +1322,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="2" t="str">
         <f aca="true">IF(M13="", IF(O13="","",X13+(INDIRECT("S" &amp; ROW() - 1) - S13)),IF(O13="", "", INDIRECT("S" &amp; ROW() - 1) - S13))</f>
         <v/>
@@ -1356,7 +1369,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="2" t="str">
         <f aca="true">IF(M14="", IF(O14="","",X14+(INDIRECT("S" &amp; ROW() - 1) - S14)),IF(O14="", "", INDIRECT("S" &amp; ROW() - 1) - S14))</f>
         <v/>
@@ -1403,7 +1416,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="2" t="str">
         <f aca="true">IF(M15="", IF(O15="","",X15+(INDIRECT("S" &amp; ROW() - 1) - S15)),IF(O15="", "", INDIRECT("S" &amp; ROW() - 1) - S15))</f>
         <v/>
@@ -1450,7 +1463,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="2" t="str">
         <f aca="true">IF(M16="", IF(O16="","",X16+(INDIRECT("S" &amp; ROW() - 1) - S16)),IF(O16="", "", INDIRECT("S" &amp; ROW() - 1) - S16))</f>
         <v/>
@@ -1497,7 +1510,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="2" t="str">
         <f aca="true">IF(M17="", IF(O17="","",X17+(INDIRECT("S" &amp; ROW() - 1) - S17)),IF(O17="", "", INDIRECT("S" &amp; ROW() - 1) - S17))</f>
         <v/>
@@ -1544,7 +1557,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="2" t="str">
         <f aca="true">IF(M18="", IF(O18="","",X18+(INDIRECT("S" &amp; ROW() - 1) - S18)),IF(O18="", "", INDIRECT("S" &amp; ROW() - 1) - S18))</f>
         <v/>
@@ -1591,7 +1604,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="2" t="str">
         <f aca="true">IF(M19="", IF(O19="","",X19+(INDIRECT("S" &amp; ROW() - 1) - S19)),IF(O19="", "", INDIRECT("S" &amp; ROW() - 1) - S19))</f>
         <v/>
@@ -1638,7 +1651,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="2" t="str">
         <f aca="true">IF(M20="", IF(O20="","",X20+(INDIRECT("S" &amp; ROW() - 1) - S20)),IF(O20="", "", INDIRECT("S" &amp; ROW() - 1) - S20))</f>
         <v/>
@@ -1685,7 +1698,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="2" t="str">
         <f aca="true">IF(M21="", IF(O21="","",X21+(INDIRECT("S" &amp; ROW() - 1) - S21)),IF(O21="", "", INDIRECT("S" &amp; ROW() - 1) - S21))</f>
         <v/>
@@ -1732,7 +1745,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="2" t="str">
         <f aca="true">IF(M22="", IF(O22="","",X22+(INDIRECT("S" &amp; ROW() - 1) - S22)),IF(O22="", "", INDIRECT("S" &amp; ROW() - 1) - S22))</f>
         <v/>
@@ -1779,7 +1792,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="2" t="str">
         <f aca="true">IF(M23="", IF(O23="","",X23+(INDIRECT("S" &amp; ROW() - 1) - S23)),IF(O23="", "", INDIRECT("S" &amp; ROW() - 1) - S23))</f>
         <v/>
@@ -1826,7 +1839,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="2" t="str">
         <f aca="true">IF(M24="", IF(O24="","",X24+(INDIRECT("S" &amp; ROW() - 1) - S24)),IF(O24="", "", INDIRECT("S" &amp; ROW() - 1) - S24))</f>
         <v/>
@@ -1873,7 +1886,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J25" s="2" t="str">
         <f aca="true">IF(M25="", IF(O25="","",X25+(INDIRECT("S" &amp; ROW() - 1) - S25)),IF(O25="", "", INDIRECT("S" &amp; ROW() - 1) - S25))</f>
         <v/>
@@ -1920,7 +1933,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J26" s="2" t="str">
         <f aca="true">IF(M26="", IF(O26="","",X26+(INDIRECT("S" &amp; ROW() - 1) - S26)),IF(O26="", "", INDIRECT("S" &amp; ROW() - 1) - S26))</f>
         <v/>
@@ -1967,7 +1980,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J27" s="2" t="str">
         <f aca="true">IF(M27="", IF(O27="","",X27+(INDIRECT("S" &amp; ROW() - 1) - S27)),IF(O27="", "", INDIRECT("S" &amp; ROW() - 1) - S27))</f>
         <v/>
@@ -2014,7 +2027,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J28" s="2" t="str">
         <f aca="true">IF(M28="", IF(O28="","",X28+(INDIRECT("S" &amp; ROW() - 1) - S28)),IF(O28="", "", INDIRECT("S" &amp; ROW() - 1) - S28))</f>
         <v/>
@@ -2061,7 +2074,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J29" s="2" t="str">
         <f aca="true">IF(M29="", IF(O29="","",X29+(INDIRECT("S" &amp; ROW() - 1) - S29)),IF(O29="", "", INDIRECT("S" &amp; ROW() - 1) - S29))</f>
         <v/>
@@ -2108,7 +2121,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J30" s="2" t="str">
         <f aca="true">IF(M30="", IF(O30="","",X30+(INDIRECT("S" &amp; ROW() - 1) - S30)),IF(O30="", "", INDIRECT("S" &amp; ROW() - 1) - S30))</f>
         <v/>
@@ -2155,7 +2168,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J31" s="2" t="str">
         <f aca="true">IF(M31="", IF(O31="","",X31+(INDIRECT("S" &amp; ROW() - 1) - S31)),IF(O31="", "", INDIRECT("S" &amp; ROW() - 1) - S31))</f>
         <v/>
@@ -2202,7 +2215,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J32" s="2" t="str">
         <f aca="true">IF(M32="", IF(O32="","",X32+(INDIRECT("S" &amp; ROW() - 1) - S32)),IF(O32="", "", INDIRECT("S" &amp; ROW() - 1) - S32))</f>
         <v/>
@@ -2249,7 +2262,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J33" s="2" t="str">
         <f aca="true">IF(M33="", IF(O33="","",X33+(INDIRECT("S" &amp; ROW() - 1) - S33)),IF(O33="", "", INDIRECT("S" &amp; ROW() - 1) - S33))</f>
         <v/>
@@ -2296,7 +2309,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J34" s="2" t="str">
         <f aca="true">IF(M34="", IF(O34="","",X34+(INDIRECT("S" &amp; ROW() - 1) - S34)),IF(O34="", "", INDIRECT("S" &amp; ROW() - 1) - S34))</f>
         <v/>
@@ -2343,7 +2356,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J35" s="2" t="str">
         <f aca="true">IF(M35="", IF(O35="","",X35+(INDIRECT("S" &amp; ROW() - 1) - S35)),IF(O35="", "", INDIRECT("S" &amp; ROW() - 1) - S35))</f>
         <v/>
@@ -2390,7 +2403,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J36" s="2" t="str">
         <f aca="true">IF(M36="", IF(O36="","",X36+(INDIRECT("S" &amp; ROW() - 1) - S36)),IF(O36="", "", INDIRECT("S" &amp; ROW() - 1) - S36))</f>
         <v/>
@@ -2437,7 +2450,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J37" s="2" t="str">
         <f aca="true">IF(M37="", IF(O37="","",X37+(INDIRECT("S" &amp; ROW() - 1) - S37)),IF(O37="", "", INDIRECT("S" &amp; ROW() - 1) - S37))</f>
         <v/>
@@ -2484,7 +2497,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J38" s="2" t="str">
         <f aca="true">IF(M38="", IF(O38="","",X38+(INDIRECT("S" &amp; ROW() - 1) - S38)),IF(O38="", "", INDIRECT("S" &amp; ROW() - 1) - S38))</f>
         <v/>
@@ -2531,7 +2544,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J39" s="2" t="str">
         <f aca="true">IF(M39="", IF(O39="","",X39+(INDIRECT("S" &amp; ROW() - 1) - S39)),IF(O39="", "", INDIRECT("S" &amp; ROW() - 1) - S39))</f>
         <v/>
@@ -2578,7 +2591,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J40" s="2" t="str">
         <f aca="true">IF(M40="", IF(O40="","",X40+(INDIRECT("S" &amp; ROW() - 1) - S40)),IF(O40="", "", INDIRECT("S" &amp; ROW() - 1) - S40))</f>
         <v/>
@@ -2625,7 +2638,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J41" s="2" t="str">
         <f aca="true">IF(M41="", IF(O41="","",X41+(INDIRECT("S" &amp; ROW() - 1) - S41)),IF(O41="", "", INDIRECT("S" &amp; ROW() - 1) - S41))</f>
         <v/>
@@ -2672,7 +2685,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J42" s="2" t="str">
         <f aca="true">IF(M42="", IF(O42="","",X42+(INDIRECT("S" &amp; ROW() - 1) - S42)),IF(O42="", "", INDIRECT("S" &amp; ROW() - 1) - S42))</f>
         <v/>
@@ -2719,7 +2732,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J43" s="2" t="str">
         <f aca="true">IF(M43="", IF(O43="","",X43+(INDIRECT("S" &amp; ROW() - 1) - S43)),IF(O43="", "", INDIRECT("S" &amp; ROW() - 1) - S43))</f>
         <v/>
@@ -2766,7 +2779,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J44" s="2" t="str">
         <f aca="true">IF(M44="", IF(O44="","",X44+(INDIRECT("S" &amp; ROW() - 1) - S44)),IF(O44="", "", INDIRECT("S" &amp; ROW() - 1) - S44))</f>
         <v/>
@@ -2813,7 +2826,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J45" s="2" t="str">
         <f aca="true">IF(M45="", IF(O45="","",X45+(INDIRECT("S" &amp; ROW() - 1) - S45)),IF(O45="", "", INDIRECT("S" &amp; ROW() - 1) - S45))</f>
         <v/>
@@ -2860,7 +2873,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J46" s="2" t="str">
         <f aca="true">IF(M46="", IF(O46="","",X46+(INDIRECT("S" &amp; ROW() - 1) - S46)),IF(O46="", "", INDIRECT("S" &amp; ROW() - 1) - S46))</f>
         <v/>
@@ -2907,7 +2920,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J47" s="2" t="str">
         <f aca="true">IF(M47="", IF(O47="","",X47+(INDIRECT("S" &amp; ROW() - 1) - S47)),IF(O47="", "", INDIRECT("S" &amp; ROW() - 1) - S47))</f>
         <v/>
@@ -2954,7 +2967,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J48" s="2" t="str">
         <f aca="true">IF(M48="", IF(O48="","",X48+(INDIRECT("S" &amp; ROW() - 1) - S48)),IF(O48="", "", INDIRECT("S" &amp; ROW() - 1) - S48))</f>
         <v/>
@@ -3001,7 +3014,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J49" s="2" t="str">
         <f aca="true">IF(M49="", IF(O49="","",X49+(INDIRECT("S" &amp; ROW() - 1) - S49)),IF(O49="", "", INDIRECT("S" &amp; ROW() - 1) - S49))</f>
         <v/>
@@ -3048,7 +3061,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J50" s="2" t="str">
         <f aca="true">IF(M50="", IF(O50="","",X50+(INDIRECT("S" &amp; ROW() - 1) - S50)),IF(O50="", "", INDIRECT("S" &amp; ROW() - 1) - S50))</f>
         <v/>
@@ -3095,7 +3108,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J51" s="2" t="str">
         <f aca="true">IF(M51="", IF(O51="","",X51+(INDIRECT("S" &amp; ROW() - 1) - S51)),IF(O51="", "", INDIRECT("S" &amp; ROW() - 1) - S51))</f>
         <v/>
@@ -3142,7 +3155,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J52" s="2" t="str">
         <f aca="true">IF(M52="", IF(O52="","",X52+(INDIRECT("S" &amp; ROW() - 1) - S52)),IF(O52="", "", INDIRECT("S" &amp; ROW() - 1) - S52))</f>
         <v/>
@@ -3189,7 +3202,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J53" s="2" t="str">
         <f aca="true">IF(M53="", IF(O53="","",X53+(INDIRECT("S" &amp; ROW() - 1) - S53)),IF(O53="", "", INDIRECT("S" &amp; ROW() - 1) - S53))</f>
         <v/>
@@ -3236,7 +3249,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J54" s="2" t="str">
         <f aca="true">IF(M54="", IF(O54="","",X54+(INDIRECT("S" &amp; ROW() - 1) - S54)),IF(O54="", "", INDIRECT("S" &amp; ROW() - 1) - S54))</f>
         <v/>
@@ -3283,7 +3296,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J55" s="2" t="str">
         <f aca="true">IF(M55="", IF(O55="","",X55+(INDIRECT("S" &amp; ROW() - 1) - S55)),IF(O55="", "", INDIRECT("S" &amp; ROW() - 1) - S55))</f>
         <v/>
@@ -3330,7 +3343,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J56" s="2" t="str">
         <f aca="true">IF(M56="", IF(O56="","",X56+(INDIRECT("S" &amp; ROW() - 1) - S56)),IF(O56="", "", INDIRECT("S" &amp; ROW() - 1) - S56))</f>
         <v/>
@@ -3377,7 +3390,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J57" s="2" t="str">
         <f aca="true">IF(M57="", IF(O57="","",X57+(INDIRECT("S" &amp; ROW() - 1) - S57)),IF(O57="", "", INDIRECT("S" &amp; ROW() - 1) - S57))</f>
         <v/>
@@ -3424,7 +3437,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J58" s="2" t="str">
         <f aca="true">IF(M58="", IF(O58="","",X58+(INDIRECT("S" &amp; ROW() - 1) - S58)),IF(O58="", "", INDIRECT("S" &amp; ROW() - 1) - S58))</f>
         <v/>
@@ -3471,7 +3484,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J59" s="2" t="str">
         <f aca="true">IF(M59="", IF(O59="","",X59+(INDIRECT("S" &amp; ROW() - 1) - S59)),IF(O59="", "", INDIRECT("S" &amp; ROW() - 1) - S59))</f>
         <v/>
@@ -3518,7 +3531,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J60" s="2" t="str">
         <f aca="true">IF(M60="", IF(O60="","",X60+(INDIRECT("S" &amp; ROW() - 1) - S60)),IF(O60="", "", INDIRECT("S" &amp; ROW() - 1) - S60))</f>
         <v/>
@@ -3565,7 +3578,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J61" s="2" t="str">
         <f aca="true">IF(M61="", IF(O61="","",X61+(INDIRECT("S" &amp; ROW() - 1) - S61)),IF(O61="", "", INDIRECT("S" &amp; ROW() - 1) - S61))</f>
         <v/>
@@ -3612,7 +3625,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J62" s="2" t="str">
         <f aca="true">IF(M62="", IF(O62="","",X62+(INDIRECT("S" &amp; ROW() - 1) - S62)),IF(O62="", "", INDIRECT("S" &amp; ROW() - 1) - S62))</f>
         <v/>
@@ -3659,7 +3672,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J63" s="2" t="str">
         <f aca="true">IF(M63="", IF(O63="","",X63+(INDIRECT("S" &amp; ROW() - 1) - S63)),IF(O63="", "", INDIRECT("S" &amp; ROW() - 1) - S63))</f>
         <v/>
@@ -3706,7 +3719,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J64" s="2" t="str">
         <f aca="true">IF(M64="", IF(O64="","",X64+(INDIRECT("S" &amp; ROW() - 1) - S64)),IF(O64="", "", INDIRECT("S" &amp; ROW() - 1) - S64))</f>
         <v/>
@@ -3753,7 +3766,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J65" s="2" t="str">
         <f aca="true">IF(M65="", IF(O65="","",X65+(INDIRECT("S" &amp; ROW() - 1) - S65)),IF(O65="", "", INDIRECT("S" &amp; ROW() - 1) - S65))</f>
         <v/>
@@ -3800,7 +3813,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J66" s="2" t="str">
         <f aca="true">IF(M66="", IF(O66="","",X66+(INDIRECT("S" &amp; ROW() - 1) - S66)),IF(O66="", "", INDIRECT("S" &amp; ROW() - 1) - S66))</f>
         <v/>
@@ -3847,7 +3860,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J67" s="2" t="str">
         <f aca="true">IF(M67="", IF(O67="","",X67+(INDIRECT("S" &amp; ROW() - 1) - S67)),IF(O67="", "", INDIRECT("S" &amp; ROW() - 1) - S67))</f>
         <v/>
@@ -3894,7 +3907,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J68" s="2" t="str">
         <f aca="true">IF(M68="", IF(O68="","",X68+(INDIRECT("S" &amp; ROW() - 1) - S68)),IF(O68="", "", INDIRECT("S" &amp; ROW() - 1) - S68))</f>
         <v/>
@@ -3941,7 +3954,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J69" s="2" t="str">
         <f aca="true">IF(M69="", IF(O69="","",X69+(INDIRECT("S" &amp; ROW() - 1) - S69)),IF(O69="", "", INDIRECT("S" &amp; ROW() - 1) - S69))</f>
         <v/>
@@ -3988,7 +4001,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J70" s="2" t="str">
         <f aca="true">IF(M70="", IF(O70="","",X70+(INDIRECT("S" &amp; ROW() - 1) - S70)),IF(O70="", "", INDIRECT("S" &amp; ROW() - 1) - S70))</f>
         <v/>
@@ -4035,7 +4048,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J71" s="2" t="str">
         <f aca="true">IF(M71="", IF(O71="","",X71+(INDIRECT("S" &amp; ROW() - 1) - S71)),IF(O71="", "", INDIRECT("S" &amp; ROW() - 1) - S71))</f>
         <v/>
@@ -4082,7 +4095,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J72" s="2" t="str">
         <f aca="true">IF(M72="", IF(O72="","",X72+(INDIRECT("S" &amp; ROW() - 1) - S72)),IF(O72="", "", INDIRECT("S" &amp; ROW() - 1) - S72))</f>
         <v/>
@@ -4129,7 +4142,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J73" s="2" t="str">
         <f aca="true">IF(M73="", IF(O73="","",X73+(INDIRECT("S" &amp; ROW() - 1) - S73)),IF(O73="", "", INDIRECT("S" &amp; ROW() - 1) - S73))</f>
         <v/>
@@ -4176,7 +4189,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J74" s="2" t="str">
         <f aca="true">IF(M74="", IF(O74="","",X74+(INDIRECT("S" &amp; ROW() - 1) - S74)),IF(O74="", "", INDIRECT("S" &amp; ROW() - 1) - S74))</f>
         <v/>
@@ -4223,7 +4236,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J75" s="2" t="str">
         <f aca="true">IF(M75="", IF(O75="","",X75+(INDIRECT("S" &amp; ROW() - 1) - S75)),IF(O75="", "", INDIRECT("S" &amp; ROW() - 1) - S75))</f>
         <v/>
@@ -4270,7 +4283,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J76" s="2" t="str">
         <f aca="true">IF(M76="", IF(O76="","",X76+(INDIRECT("S" &amp; ROW() - 1) - S76)),IF(O76="", "", INDIRECT("S" &amp; ROW() - 1) - S76))</f>
         <v/>
@@ -4317,7 +4330,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J77" s="2" t="str">
         <f aca="true">IF(M77="", IF(O77="","",X77+(INDIRECT("S" &amp; ROW() - 1) - S77)),IF(O77="", "", INDIRECT("S" &amp; ROW() - 1) - S77))</f>
         <v/>
@@ -4364,7 +4377,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J78" s="2" t="str">
         <f aca="true">IF(M78="", IF(O78="","",X78+(INDIRECT("S" &amp; ROW() - 1) - S78)),IF(O78="", "", INDIRECT("S" &amp; ROW() - 1) - S78))</f>
         <v/>
@@ -4411,7 +4424,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J79" s="2" t="str">
         <f aca="true">IF(M79="", IF(O79="","",X79+(INDIRECT("S" &amp; ROW() - 1) - S79)),IF(O79="", "", INDIRECT("S" &amp; ROW() - 1) - S79))</f>
         <v/>
@@ -4458,7 +4471,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J80" s="2" t="str">
         <f aca="true">IF(M80="", IF(O80="","",X80+(INDIRECT("S" &amp; ROW() - 1) - S80)),IF(O80="", "", INDIRECT("S" &amp; ROW() - 1) - S80))</f>
         <v/>
@@ -4505,7 +4518,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J81" s="2" t="str">
         <f aca="true">IF(M81="", IF(O81="","",X81+(INDIRECT("S" &amp; ROW() - 1) - S81)),IF(O81="", "", INDIRECT("S" &amp; ROW() - 1) - S81))</f>
         <v/>
@@ -4552,7 +4565,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J82" s="2" t="str">
         <f aca="true">IF(M82="", IF(O82="","",X82+(INDIRECT("S" &amp; ROW() - 1) - S82)),IF(O82="", "", INDIRECT("S" &amp; ROW() - 1) - S82))</f>
         <v/>
@@ -4599,7 +4612,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J83" s="2" t="str">
         <f aca="true">IF(M83="", IF(O83="","",X83+(INDIRECT("S" &amp; ROW() - 1) - S83)),IF(O83="", "", INDIRECT("S" &amp; ROW() - 1) - S83))</f>
         <v/>
@@ -4646,7 +4659,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J84" s="2" t="str">
         <f aca="true">IF(M84="", IF(O84="","",X84+(INDIRECT("S" &amp; ROW() - 1) - S84)),IF(O84="", "", INDIRECT("S" &amp; ROW() - 1) - S84))</f>
         <v/>
@@ -4693,7 +4706,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J85" s="2" t="str">
         <f aca="true">IF(M85="", IF(O85="","",X85+(INDIRECT("S" &amp; ROW() - 1) - S85)),IF(O85="", "", INDIRECT("S" &amp; ROW() - 1) - S85))</f>
         <v/>
@@ -4740,7 +4753,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J86" s="2" t="str">
         <f aca="true">IF(M86="", IF(O86="","",X86+(INDIRECT("S" &amp; ROW() - 1) - S86)),IF(O86="", "", INDIRECT("S" &amp; ROW() - 1) - S86))</f>
         <v/>
@@ -4787,7 +4800,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J87" s="2" t="str">
         <f aca="true">IF(M87="", IF(O87="","",X87+(INDIRECT("S" &amp; ROW() - 1) - S87)),IF(O87="", "", INDIRECT("S" &amp; ROW() - 1) - S87))</f>
         <v/>
@@ -4834,7 +4847,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J88" s="2" t="str">
         <f aca="true">IF(M88="", IF(O88="","",X88+(INDIRECT("S" &amp; ROW() - 1) - S88)),IF(O88="", "", INDIRECT("S" &amp; ROW() - 1) - S88))</f>
         <v/>
@@ -4881,7 +4894,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J89" s="2" t="str">
         <f aca="true">IF(M89="", IF(O89="","",X89+(INDIRECT("S" &amp; ROW() - 1) - S89)),IF(O89="", "", INDIRECT("S" &amp; ROW() - 1) - S89))</f>
         <v/>
@@ -4928,7 +4941,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J90" s="2" t="str">
         <f aca="true">IF(M90="", IF(O90="","",X90+(INDIRECT("S" &amp; ROW() - 1) - S90)),IF(O90="", "", INDIRECT("S" &amp; ROW() - 1) - S90))</f>
         <v/>
@@ -4975,7 +4988,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J91" s="2" t="str">
         <f aca="true">IF(M91="", IF(O91="","",X91+(INDIRECT("S" &amp; ROW() - 1) - S91)),IF(O91="", "", INDIRECT("S" &amp; ROW() - 1) - S91))</f>
         <v/>
@@ -5022,7 +5035,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J92" s="2" t="str">
         <f aca="true">IF(M92="", IF(O92="","",X92+(INDIRECT("S" &amp; ROW() - 1) - S92)),IF(O92="", "", INDIRECT("S" &amp; ROW() - 1) - S92))</f>
         <v/>
@@ -5069,7 +5082,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J93" s="2" t="str">
         <f aca="true">IF(M93="", IF(O93="","",X93+(INDIRECT("S" &amp; ROW() - 1) - S93)),IF(O93="", "", INDIRECT("S" &amp; ROW() - 1) - S93))</f>
         <v/>
@@ -5116,7 +5129,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J94" s="2" t="str">
         <f aca="true">IF(M94="", IF(O94="","",X94+(INDIRECT("S" &amp; ROW() - 1) - S94)),IF(O94="", "", INDIRECT("S" &amp; ROW() - 1) - S94))</f>
         <v/>
@@ -5163,7 +5176,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J95" s="2" t="str">
         <f aca="true">IF(M95="", IF(O95="","",X95+(INDIRECT("S" &amp; ROW() - 1) - S95)),IF(O95="", "", INDIRECT("S" &amp; ROW() - 1) - S95))</f>
         <v/>
@@ -5210,7 +5223,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J96" s="2" t="str">
         <f aca="true">IF(M96="", IF(O96="","",X96+(INDIRECT("S" &amp; ROW() - 1) - S96)),IF(O96="", "", INDIRECT("S" &amp; ROW() - 1) - S96))</f>
         <v/>
@@ -5257,7 +5270,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J97" s="2" t="str">
         <f aca="true">IF(M97="", IF(O97="","",X97+(INDIRECT("S" &amp; ROW() - 1) - S97)),IF(O97="", "", INDIRECT("S" &amp; ROW() - 1) - S97))</f>
         <v/>
@@ -5304,7 +5317,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J98" s="2" t="str">
         <f aca="true">IF(M98="", IF(O98="","",X98+(INDIRECT("S" &amp; ROW() - 1) - S98)),IF(O98="", "", INDIRECT("S" &amp; ROW() - 1) - S98))</f>
         <v/>
@@ -5351,7 +5364,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J99" s="2" t="str">
         <f aca="true">IF(M99="", IF(O99="","",X99+(INDIRECT("S" &amp; ROW() - 1) - S99)),IF(O99="", "", INDIRECT("S" &amp; ROW() - 1) - S99))</f>
         <v/>
@@ -5398,7 +5411,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J100" s="2" t="str">
         <f aca="true">IF(M100="", IF(O100="","",X100+(INDIRECT("S" &amp; ROW() - 1) - S100)),IF(O100="", "", INDIRECT("S" &amp; ROW() - 1) - S100))</f>
         <v/>
@@ -5445,7 +5458,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J101" s="2" t="str">
         <f aca="true">IF(M101="", IF(O101="","",X101+(INDIRECT("S" &amp; ROW() - 1) - S101)),IF(O101="", "", INDIRECT("S" &amp; ROW() - 1) - S101))</f>
         <v/>
@@ -5492,7 +5505,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J102" s="2" t="str">
         <f aca="true">IF(M102="", IF(O102="","",X102+(INDIRECT("S" &amp; ROW() - 1) - S102)),IF(O102="", "", INDIRECT("S" &amp; ROW() - 1) - S102))</f>
         <v/>
@@ -5539,7 +5552,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J103" s="2" t="str">
         <f aca="true">IF(M103="", IF(O103="","",X103+(INDIRECT("S" &amp; ROW() - 1) - S103)),IF(O103="", "", INDIRECT("S" &amp; ROW() - 1) - S103))</f>
         <v/>
@@ -5586,7 +5599,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J104" s="2" t="str">
         <f aca="true">IF(M104="", IF(O104="","",X104+(INDIRECT("S" &amp; ROW() - 1) - S104)),IF(O104="", "", INDIRECT("S" &amp; ROW() - 1) - S104))</f>
         <v/>
@@ -5633,7 +5646,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J105" s="2" t="str">
         <f aca="true">IF(M105="", IF(O105="","",X105+(INDIRECT("S" &amp; ROW() - 1) - S105)),IF(O105="", "", INDIRECT("S" &amp; ROW() - 1) - S105))</f>
         <v/>
@@ -5680,7 +5693,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J106" s="2" t="str">
         <f aca="true">IF(M106="", IF(O106="","",X106+(INDIRECT("S" &amp; ROW() - 1) - S106)),IF(O106="", "", INDIRECT("S" &amp; ROW() - 1) - S106))</f>
         <v/>
@@ -5727,7 +5740,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J107" s="2" t="str">
         <f aca="true">IF(M107="", IF(O107="","",X107+(INDIRECT("S" &amp; ROW() - 1) - S107)),IF(O107="", "", INDIRECT("S" &amp; ROW() - 1) - S107))</f>
         <v/>
@@ -5774,7 +5787,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J108" s="2" t="str">
         <f aca="true">IF(M108="", IF(O108="","",X108+(INDIRECT("S" &amp; ROW() - 1) - S108)),IF(O108="", "", INDIRECT("S" &amp; ROW() - 1) - S108))</f>
         <v/>
@@ -5821,7 +5834,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J109" s="2" t="str">
         <f aca="true">IF(M109="", IF(O109="","",X109+(INDIRECT("S" &amp; ROW() - 1) - S109)),IF(O109="", "", INDIRECT("S" &amp; ROW() - 1) - S109))</f>
         <v/>
@@ -5868,7 +5881,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J110" s="2" t="str">
         <f aca="true">IF(M110="", IF(O110="","",X110+(INDIRECT("S" &amp; ROW() - 1) - S110)),IF(O110="", "", INDIRECT("S" &amp; ROW() - 1) - S110))</f>
         <v/>
@@ -5915,7 +5928,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J111" s="2" t="str">
         <f aca="true">IF(M111="", IF(O111="","",X111+(INDIRECT("S" &amp; ROW() - 1) - S111)),IF(O111="", "", INDIRECT("S" &amp; ROW() - 1) - S111))</f>
         <v/>
@@ -5962,7 +5975,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J112" s="2" t="str">
         <f aca="true">IF(M112="", IF(O112="","",X112+(INDIRECT("S" &amp; ROW() - 1) - S112)),IF(O112="", "", INDIRECT("S" &amp; ROW() - 1) - S112))</f>
         <v/>
@@ -6009,7 +6022,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J113" s="2" t="str">
         <f aca="true">IF(M113="", IF(O113="","",X113+(INDIRECT("S" &amp; ROW() - 1) - S113)),IF(O113="", "", INDIRECT("S" &amp; ROW() - 1) - S113))</f>
         <v/>
@@ -6056,7 +6069,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J114" s="2" t="str">
         <f aca="true">IF(M114="", IF(O114="","",X114+(INDIRECT("S" &amp; ROW() - 1) - S114)),IF(O114="", "", INDIRECT("S" &amp; ROW() - 1) - S114))</f>
         <v/>
@@ -6103,7 +6116,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J115" s="2" t="str">
         <f aca="true">IF(M115="", IF(O115="","",X115+(INDIRECT("S" &amp; ROW() - 1) - S115)),IF(O115="", "", INDIRECT("S" &amp; ROW() - 1) - S115))</f>
         <v/>
@@ -6150,7 +6163,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J116" s="2" t="str">
         <f aca="true">IF(M116="", IF(O116="","",X116+(INDIRECT("S" &amp; ROW() - 1) - S116)),IF(O116="", "", INDIRECT("S" &amp; ROW() - 1) - S116))</f>
         <v/>
@@ -6197,7 +6210,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J117" s="2" t="str">
         <f aca="true">IF(M117="", IF(O117="","",X117+(INDIRECT("S" &amp; ROW() - 1) - S117)),IF(O117="", "", INDIRECT("S" &amp; ROW() - 1) - S117))</f>
         <v/>
@@ -6244,7 +6257,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J118" s="2" t="str">
         <f aca="true">IF(M118="", IF(O118="","",X118+(INDIRECT("S" &amp; ROW() - 1) - S118)),IF(O118="", "", INDIRECT("S" &amp; ROW() - 1) - S118))</f>
         <v/>
@@ -6291,7 +6304,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J119" s="2" t="str">
         <f aca="true">IF(M119="", IF(O119="","",X119+(INDIRECT("S" &amp; ROW() - 1) - S119)),IF(O119="", "", INDIRECT("S" &amp; ROW() - 1) - S119))</f>
         <v/>
@@ -6338,7 +6351,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J120" s="2" t="str">
         <f aca="true">IF(M120="", IF(O120="","",X120+(INDIRECT("S" &amp; ROW() - 1) - S120)),IF(O120="", "", INDIRECT("S" &amp; ROW() - 1) - S120))</f>
         <v/>
@@ -6385,7 +6398,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J121" s="2" t="str">
         <f aca="true">IF(M121="", IF(O121="","",X121+(INDIRECT("S" &amp; ROW() - 1) - S121)),IF(O121="", "", INDIRECT("S" &amp; ROW() - 1) - S121))</f>
         <v/>
@@ -6432,7 +6445,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J122" s="2" t="str">
         <f aca="true">IF(M122="", IF(O122="","",X122+(INDIRECT("S" &amp; ROW() - 1) - S122)),IF(O122="", "", INDIRECT("S" &amp; ROW() - 1) - S122))</f>
         <v/>
@@ -6500,10 +6513,10 @@
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(IF(N1="",0, J1)  &gt;= - 0.05* IF(N1="",0,N1), IF(N1="",0, J1) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND(IF(N1="",0, J1)  &lt;= 0.05* IF(N1="",0,N1), IF(N1="",0, J1) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>IF(N1="",0,J1)  &gt; 0.05* IF(N1="",0,N1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6548,7 +6561,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/app/data/static/templates/constructor_schedule.xlsx
+++ b/app/data/static/templates/constructor_schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krokh\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krokh\Desktop\umalat\app\data\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -664,9 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I6" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4037,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <f t="shared" ref="Q66:Q97" ca="1" si="23">IF(O66 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P66)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P66)))), 0)</f>
+        <f t="shared" ref="Q66:Q73" ca="1" si="23">IF(O66 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P66)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P66)))), 0)</f>
         <v>0</v>
       </c>
       <c r="R66">
@@ -5533,11 +5531,11 @@
       </c>
       <c r="M98" s="10"/>
       <c r="N98" s="9" t="str">
-        <f t="shared" ref="N98:N129" ca="1" si="32">IF(M98="", IF(X98=0, "", X98), IF(V98 = "", "", IF(V98/U98 = 0, "", V98/U98)))</f>
+        <f t="shared" ref="N98:N122" ca="1" si="32">IF(M98="", IF(X98=0, "", X98), IF(V98 = "", "", IF(V98/U98 = 0, "", V98/U98)))</f>
         <v/>
       </c>
       <c r="P98">
-        <f t="shared" ref="P98:P129" si="33">IF(O98 = "-", -W98,I98)</f>
+        <f t="shared" ref="P98:P122" si="33">IF(O98 = "-", -W98,I98)</f>
         <v>0</v>
       </c>
       <c r="Q98">
@@ -5565,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="W98">
-        <f t="shared" ref="W98:W129" ca="1" si="38">IF(V98 = "", "", V98/U98)</f>
+        <f t="shared" ref="W98:W122" ca="1" si="38">IF(V98 = "", "", V98/U98)</f>
         <v>0</v>
       </c>
       <c r="X98" t="str">

--- a/app/data/static/templates/constructor_schedule.xlsx
+++ b/app/data/static/templates/constructor_schedule.xlsx
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="0" t="n">
-        <f aca="false">IF(V2 = "", "", V2/U2)</f>
+        <f aca="true">IF(O2 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X2" s="0" t="str">
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="0" t="n">
-        <f aca="false">IF(V3 = "", "", V3/U3)</f>
+        <f aca="true">IF(O3 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X3" s="0" t="str">
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="0" t="n">
-        <f aca="false">IF(V4 = "", "", V4/U4)</f>
+        <f aca="true">IF(O4 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X4" s="0" t="str">
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="0" t="n">
-        <f aca="false">IF(V5 = "", "", V5/U5)</f>
+        <f aca="true">IF(O5 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X5" s="0" t="str">
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="0" t="n">
-        <f aca="false">IF(V6 = "", "", V6/U6)</f>
+        <f aca="true">IF(O6 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X6" s="0" t="str">
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="0" t="n">
-        <f aca="false">IF(V7 = "", "", V7/U7)</f>
+        <f aca="true">IF(O7 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X7" s="0" t="str">
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="0" t="n">
-        <f aca="false">IF(V8 = "", "", V8/U8)</f>
+        <f aca="true">IF(O8 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X8" s="0" t="str">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="0" t="n">
-        <f aca="false">IF(V9 = "", "", V9/U9)</f>
+        <f aca="true">IF(O9 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X9" s="0" t="str">
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="0" t="n">
-        <f aca="false">IF(V10 = "", "", V10/U10)</f>
+        <f aca="true">IF(O10 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X10" s="0" t="str">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="0" t="n">
-        <f aca="false">IF(V11 = "", "", V11/U11)</f>
+        <f aca="true">IF(O11 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X11" s="0" t="str">
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="0" t="n">
-        <f aca="false">IF(V12 = "", "", V12/U12)</f>
+        <f aca="true">IF(O12 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X12" s="0" t="str">
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="0" t="n">
-        <f aca="false">IF(V13 = "", "", V13/U13)</f>
+        <f aca="true">IF(O13 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X13" s="0" t="str">
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="0" t="n">
-        <f aca="false">IF(V14 = "", "", V14/U14)</f>
+        <f aca="true">IF(O14 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X14" s="0" t="str">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="0" t="n">
-        <f aca="false">IF(V15 = "", "", V15/U15)</f>
+        <f aca="true">IF(O15 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X15" s="0" t="str">
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="0" t="n">
-        <f aca="false">IF(V16 = "", "", V16/U16)</f>
+        <f aca="true">IF(O16 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X16" s="0" t="str">
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="0" t="n">
-        <f aca="false">IF(V17 = "", "", V17/U17)</f>
+        <f aca="true">IF(O17 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X17" s="0" t="str">
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="0" t="n">
-        <f aca="false">IF(V18 = "", "", V18/U18)</f>
+        <f aca="true">IF(O18 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X18" s="0" t="str">
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="0" t="n">
-        <f aca="false">IF(V19 = "", "", V19/U19)</f>
+        <f aca="true">IF(O19 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X19" s="0" t="str">
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="0" t="n">
-        <f aca="false">IF(V20 = "", "", V20/U20)</f>
+        <f aca="true">IF(O20 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X20" s="0" t="str">
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0" t="n">
-        <f aca="false">IF(V21 = "", "", V21/U21)</f>
+        <f aca="true">IF(O21 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X21" s="0" t="str">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="0" t="n">
-        <f aca="false">IF(V22 = "", "", V22/U22)</f>
+        <f aca="true">IF(O22 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X22" s="0" t="str">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="0" t="n">
-        <f aca="false">IF(V23 = "", "", V23/U23)</f>
+        <f aca="true">IF(O23 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X23" s="0" t="str">
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="0" t="n">
-        <f aca="false">IF(V24 = "", "", V24/U24)</f>
+        <f aca="true">IF(O24 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X24" s="0" t="str">
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0" t="n">
-        <f aca="false">IF(V25 = "", "", V25/U25)</f>
+        <f aca="true">IF(O25 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X25" s="0" t="str">
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="0" t="n">
-        <f aca="false">IF(V26 = "", "", V26/U26)</f>
+        <f aca="true">IF(O26 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X26" s="0" t="str">
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="0" t="n">
-        <f aca="false">IF(V27 = "", "", V27/U27)</f>
+        <f aca="true">IF(O27 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X27" s="0" t="str">
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="0" t="n">
-        <f aca="false">IF(V28 = "", "", V28/U28)</f>
+        <f aca="true">IF(O28 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X28" s="0" t="str">
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="0" t="n">
-        <f aca="false">IF(V29 = "", "", V29/U29)</f>
+        <f aca="true">IF(O29 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X29" s="0" t="str">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="0" t="n">
-        <f aca="false">IF(V30 = "", "", V30/U30)</f>
+        <f aca="true">IF(O30 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X30" s="0" t="str">
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="0" t="n">
-        <f aca="false">IF(V31 = "", "", V31/U31)</f>
+        <f aca="true">IF(O31 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X31" s="0" t="str">
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="0" t="n">
-        <f aca="false">IF(V32 = "", "", V32/U32)</f>
+        <f aca="true">IF(O32 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X32" s="0" t="str">
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="0" t="n">
-        <f aca="false">IF(V33 = "", "", V33/U33)</f>
+        <f aca="true">IF(O33 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X33" s="0" t="str">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="0" t="n">
-        <f aca="false">IF(V34 = "", "", V34/U34)</f>
+        <f aca="true">IF(O34 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X34" s="0" t="str">
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="0" t="n">
-        <f aca="false">IF(V35 = "", "", V35/U35)</f>
+        <f aca="true">IF(O35 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X35" s="0" t="str">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="0" t="n">
-        <f aca="false">IF(V36 = "", "", V36/U36)</f>
+        <f aca="true">IF(O36 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X36" s="0" t="str">
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="0" t="n">
-        <f aca="false">IF(V37 = "", "", V37/U37)</f>
+        <f aca="true">IF(O37 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X37" s="0" t="str">
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="0" t="n">
-        <f aca="false">IF(V38 = "", "", V38/U38)</f>
+        <f aca="true">IF(O38 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X38" s="0" t="str">
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="0" t="n">
-        <f aca="false">IF(V39 = "", "", V39/U39)</f>
+        <f aca="true">IF(O39 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X39" s="0" t="str">
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="0" t="n">
-        <f aca="false">IF(V40 = "", "", V40/U40)</f>
+        <f aca="true">IF(O40 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X40" s="0" t="str">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="0" t="n">
-        <f aca="false">IF(V41 = "", "", V41/U41)</f>
+        <f aca="true">IF(O41 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X41" s="0" t="str">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="0" t="n">
-        <f aca="false">IF(V42 = "", "", V42/U42)</f>
+        <f aca="true">IF(O42 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X42" s="0" t="str">
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="0" t="n">
-        <f aca="false">IF(V43 = "", "", V43/U43)</f>
+        <f aca="true">IF(O43 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X43" s="0" t="str">
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="0" t="n">
-        <f aca="false">IF(V44 = "", "", V44/U44)</f>
+        <f aca="true">IF(O44 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X44" s="0" t="str">
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="0" t="n">
-        <f aca="false">IF(V45 = "", "", V45/U45)</f>
+        <f aca="true">IF(O45 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X45" s="0" t="str">
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="0" t="n">
-        <f aca="false">IF(V46 = "", "", V46/U46)</f>
+        <f aca="true">IF(O46 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X46" s="0" t="str">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="0" t="n">
-        <f aca="false">IF(V47 = "", "", V47/U47)</f>
+        <f aca="true">IF(O47 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X47" s="0" t="str">
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="0" t="n">
-        <f aca="false">IF(V48 = "", "", V48/U48)</f>
+        <f aca="true">IF(O48 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X48" s="0" t="str">
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="0" t="n">
-        <f aca="false">IF(V49 = "", "", V49/U49)</f>
+        <f aca="true">IF(O49 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X49" s="0" t="str">
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="W50" s="0" t="n">
-        <f aca="false">IF(V50 = "", "", V50/U50)</f>
+        <f aca="true">IF(O50 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X50" s="0" t="str">
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="0" t="n">
-        <f aca="false">IF(V51 = "", "", V51/U51)</f>
+        <f aca="true">IF(O51 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X51" s="0" t="str">
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="0" t="n">
-        <f aca="false">IF(V52 = "", "", V52/U52)</f>
+        <f aca="true">IF(O52 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X52" s="0" t="str">
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="0" t="n">
-        <f aca="false">IF(V53 = "", "", V53/U53)</f>
+        <f aca="true">IF(O53 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X53" s="0" t="str">
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="W54" s="0" t="n">
-        <f aca="false">IF(V54 = "", "", V54/U54)</f>
+        <f aca="true">IF(O54 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X54" s="0" t="str">
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="W55" s="0" t="n">
-        <f aca="false">IF(V55 = "", "", V55/U55)</f>
+        <f aca="true">IF(O55 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X55" s="0" t="str">
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="0" t="n">
-        <f aca="false">IF(V56 = "", "", V56/U56)</f>
+        <f aca="true">IF(O56 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X56" s="0" t="str">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="W57" s="0" t="n">
-        <f aca="false">IF(V57 = "", "", V57/U57)</f>
+        <f aca="true">IF(O57 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X57" s="0" t="str">
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="0" t="n">
-        <f aca="false">IF(V58 = "", "", V58/U58)</f>
+        <f aca="true">IF(O58 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X58" s="0" t="str">
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="0" t="n">
-        <f aca="false">IF(V59 = "", "", V59/U59)</f>
+        <f aca="true">IF(O59 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X59" s="0" t="str">
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="0" t="n">
-        <f aca="false">IF(V60 = "", "", V60/U60)</f>
+        <f aca="true">IF(O60 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X60" s="0" t="str">
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="0" t="n">
-        <f aca="false">IF(V61 = "", "", V61/U61)</f>
+        <f aca="true">IF(O61 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X61" s="0" t="str">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="W62" s="0" t="n">
-        <f aca="false">IF(V62 = "", "", V62/U62)</f>
+        <f aca="true">IF(O62 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X62" s="0" t="str">
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="W63" s="0" t="n">
-        <f aca="false">IF(V63 = "", "", V63/U63)</f>
+        <f aca="true">IF(O63 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X63" s="0" t="str">
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="W64" s="0" t="n">
-        <f aca="false">IF(V64 = "", "", V64/U64)</f>
+        <f aca="true">IF(O64 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X64" s="0" t="str">
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="W65" s="0" t="n">
-        <f aca="false">IF(V65 = "", "", V65/U65)</f>
+        <f aca="true">IF(O65 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X65" s="0" t="str">
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="W66" s="0" t="n">
-        <f aca="false">IF(V66 = "", "", V66/U66)</f>
+        <f aca="true">IF(O66 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X66" s="0" t="str">
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="W67" s="0" t="n">
-        <f aca="false">IF(V67 = "", "", V67/U67)</f>
+        <f aca="true">IF(O67 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X67" s="0" t="str">
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="W68" s="0" t="n">
-        <f aca="false">IF(V68 = "", "", V68/U68)</f>
+        <f aca="true">IF(O68 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X68" s="0" t="str">
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="W69" s="0" t="n">
-        <f aca="false">IF(V69 = "", "", V69/U69)</f>
+        <f aca="true">IF(O69 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X69" s="0" t="str">
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="W70" s="0" t="n">
-        <f aca="false">IF(V70 = "", "", V70/U70)</f>
+        <f aca="true">IF(O70 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X70" s="0" t="str">
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="W71" s="0" t="n">
-        <f aca="false">IF(V71 = "", "", V71/U71)</f>
+        <f aca="true">IF(O71 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X71" s="0" t="str">
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="W72" s="0" t="n">
-        <f aca="false">IF(V72 = "", "", V72/U72)</f>
+        <f aca="true">IF(O72 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X72" s="0" t="str">
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="W73" s="0" t="n">
-        <f aca="false">IF(V73 = "", "", V73/U73)</f>
+        <f aca="true">IF(O73 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X73" s="0" t="str">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="W74" s="0" t="n">
-        <f aca="false">IF(V74 = "", "", V74/U74)</f>
+        <f aca="true">IF(O74 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X74" s="0" t="str">
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="W75" s="0" t="n">
-        <f aca="false">IF(V75 = "", "", V75/U75)</f>
+        <f aca="true">IF(O75 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X75" s="0" t="str">
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="W76" s="0" t="n">
-        <f aca="false">IF(V76 = "", "", V76/U76)</f>
+        <f aca="true">IF(O76 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X76" s="0" t="str">
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="W77" s="0" t="n">
-        <f aca="false">IF(V77 = "", "", V77/U77)</f>
+        <f aca="true">IF(O77 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X77" s="0" t="str">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="W78" s="0" t="n">
-        <f aca="false">IF(V78 = "", "", V78/U78)</f>
+        <f aca="true">IF(O78 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X78" s="0" t="str">
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="W79" s="0" t="n">
-        <f aca="false">IF(V79 = "", "", V79/U79)</f>
+        <f aca="true">IF(O79 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X79" s="0" t="str">
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="W80" s="0" t="n">
-        <f aca="false">IF(V80 = "", "", V80/U80)</f>
+        <f aca="true">IF(O80 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X80" s="0" t="str">
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="W81" s="0" t="n">
-        <f aca="false">IF(V81 = "", "", V81/U81)</f>
+        <f aca="true">IF(O81 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X81" s="0" t="str">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="W82" s="0" t="n">
-        <f aca="false">IF(V82 = "", "", V82/U82)</f>
+        <f aca="true">IF(O82 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X82" s="0" t="str">
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="W83" s="0" t="n">
-        <f aca="false">IF(V83 = "", "", V83/U83)</f>
+        <f aca="true">IF(O83 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X83" s="0" t="str">
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="W84" s="0" t="n">
-        <f aca="false">IF(V84 = "", "", V84/U84)</f>
+        <f aca="true">IF(O84 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X84" s="0" t="str">
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="W85" s="0" t="n">
-        <f aca="false">IF(V85 = "", "", V85/U85)</f>
+        <f aca="true">IF(O85 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X85" s="0" t="str">
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="W86" s="0" t="n">
-        <f aca="false">IF(V86 = "", "", V86/U86)</f>
+        <f aca="true">IF(O86 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X86" s="0" t="str">
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="W87" s="0" t="n">
-        <f aca="false">IF(V87 = "", "", V87/U87)</f>
+        <f aca="true">IF(O87 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X87" s="0" t="str">
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="W88" s="0" t="n">
-        <f aca="false">IF(V88 = "", "", V88/U88)</f>
+        <f aca="true">IF(O88 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X88" s="0" t="str">
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="W89" s="0" t="n">
-        <f aca="false">IF(V89 = "", "", V89/U89)</f>
+        <f aca="true">IF(O89 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X89" s="0" t="str">
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="W90" s="0" t="n">
-        <f aca="false">IF(V90 = "", "", V90/U90)</f>
+        <f aca="true">IF(O90 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X90" s="0" t="str">
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="W91" s="0" t="n">
-        <f aca="false">IF(V91 = "", "", V91/U91)</f>
+        <f aca="true">IF(O91 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X91" s="0" t="str">
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="W92" s="0" t="n">
-        <f aca="false">IF(V92 = "", "", V92/U92)</f>
+        <f aca="true">IF(O92 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X92" s="0" t="str">
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="W93" s="0" t="n">
-        <f aca="false">IF(V93 = "", "", V93/U93)</f>
+        <f aca="true">IF(O93 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X93" s="0" t="str">
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="W94" s="0" t="n">
-        <f aca="false">IF(V94 = "", "", V94/U94)</f>
+        <f aca="true">IF(O94 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X94" s="0" t="str">
@@ -5217,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="W95" s="0" t="n">
-        <f aca="false">IF(V95 = "", "", V95/U95)</f>
+        <f aca="true">IF(O95 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X95" s="0" t="str">
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="W96" s="0" t="n">
-        <f aca="false">IF(V96 = "", "", V96/U96)</f>
+        <f aca="true">IF(O96 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X96" s="0" t="str">
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="W97" s="0" t="n">
-        <f aca="false">IF(V97 = "", "", V97/U97)</f>
+        <f aca="true">IF(O97 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X97" s="0" t="str">
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="W98" s="0" t="n">
-        <f aca="false">IF(V98 = "", "", V98/U98)</f>
+        <f aca="true">IF(O98 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X98" s="0" t="str">
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="W99" s="0" t="n">
-        <f aca="false">IF(V99 = "", "", V99/U99)</f>
+        <f aca="true">IF(O99 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X99" s="0" t="str">
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="W100" s="0" t="n">
-        <f aca="false">IF(V100 = "", "", V100/U100)</f>
+        <f aca="true">IF(O100 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X100" s="0" t="str">
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="W101" s="0" t="n">
-        <f aca="false">IF(V101 = "", "", V101/U101)</f>
+        <f aca="true">IF(O101 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X101" s="0" t="str">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="W102" s="0" t="n">
-        <f aca="false">IF(V102 = "", "", V102/U102)</f>
+        <f aca="true">IF(O102 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X102" s="0" t="str">
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="W103" s="0" t="n">
-        <f aca="false">IF(V103 = "", "", V103/U103)</f>
+        <f aca="true">IF(O103 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X103" s="0" t="str">
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="W104" s="0" t="n">
-        <f aca="false">IF(V104 = "", "", V104/U104)</f>
+        <f aca="true">IF(O104 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X104" s="0" t="str">
@@ -5687,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="W105" s="0" t="n">
-        <f aca="false">IF(V105 = "", "", V105/U105)</f>
+        <f aca="true">IF(O105 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X105" s="0" t="str">
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="W106" s="0" t="n">
-        <f aca="false">IF(V106 = "", "", V106/U106)</f>
+        <f aca="true">IF(O106 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X106" s="0" t="str">
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="W107" s="0" t="n">
-        <f aca="false">IF(V107 = "", "", V107/U107)</f>
+        <f aca="true">IF(O107 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X107" s="0" t="str">
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="W108" s="0" t="n">
-        <f aca="false">IF(V108 = "", "", V108/U108)</f>
+        <f aca="true">IF(O108 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X108" s="0" t="str">
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="W109" s="0" t="n">
-        <f aca="false">IF(V109 = "", "", V109/U109)</f>
+        <f aca="true">IF(O109 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X109" s="0" t="str">
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="W110" s="0" t="n">
-        <f aca="false">IF(V110 = "", "", V110/U110)</f>
+        <f aca="true">IF(O110 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X110" s="0" t="str">
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="W111" s="0" t="n">
-        <f aca="false">IF(V111 = "", "", V111/U111)</f>
+        <f aca="true">IF(O111 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X111" s="0" t="str">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="W112" s="0" t="n">
-        <f aca="false">IF(V112 = "", "", V112/U112)</f>
+        <f aca="true">IF(O112 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X112" s="0" t="str">
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="W113" s="0" t="n">
-        <f aca="false">IF(V113 = "", "", V113/U113)</f>
+        <f aca="true">IF(O113 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X113" s="0" t="str">
@@ -6110,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="W114" s="0" t="n">
-        <f aca="false">IF(V114 = "", "", V114/U114)</f>
+        <f aca="true">IF(O114 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X114" s="0" t="str">
@@ -6157,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="W115" s="0" t="n">
-        <f aca="false">IF(V115 = "", "", V115/U115)</f>
+        <f aca="true">IF(O115 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X115" s="0" t="str">
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="W116" s="0" t="n">
-        <f aca="false">IF(V116 = "", "", V116/U116)</f>
+        <f aca="true">IF(O116 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X116" s="0" t="str">
@@ -6251,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="W117" s="0" t="n">
-        <f aca="false">IF(V117 = "", "", V117/U117)</f>
+        <f aca="true">IF(O117 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X117" s="0" t="str">
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="W118" s="0" t="n">
-        <f aca="false">IF(V118 = "", "", V118/U118)</f>
+        <f aca="true">IF(O118 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X118" s="0" t="str">
@@ -6345,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="W119" s="0" t="n">
-        <f aca="false">IF(V119 = "", "", V119/U119)</f>
+        <f aca="true">IF(O119 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X119" s="0" t="str">
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="W120" s="0" t="n">
-        <f aca="false">IF(V120 = "", "", V120/U120)</f>
+        <f aca="true">IF(O120 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X120" s="0" t="str">
@@ -6439,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="W121" s="0" t="n">
-        <f aca="false">IF(V121 = "", "", V121/U121)</f>
+        <f aca="true">IF(O121 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X121" s="0" t="str">
@@ -6486,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="W122" s="0" t="n">
-        <f aca="false">IF(V122 = "", "", V122/U122)</f>
+        <f aca="true">IF(O122 = "-", INDIRECT("C" &amp; ROW() - 1), 0)</f>
         <v>0</v>
       </c>
       <c r="X122" s="0" t="str">
